--- a/src/test/resources/Testdata/Data.xlsx
+++ b/src/test/resources/Testdata/Data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15207" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21741" uniqueCount="507">
   <si>
     <t>Bike model</t>
   </si>
@@ -1543,6 +1543,18 @@
   </si>
   <si>
     <t>Rs. 17.30 Lakh</t>
+  </si>
+  <si>
+    <t>Renault Kiger 2021-2023 Renault Kiger RXL</t>
+  </si>
+  <si>
+    <t>Rs. 6.74 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.46 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2018 Maruti Swift AMT VXI</t>
   </si>
 </sst>
 </file>
@@ -2171,13 +2183,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>440</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>45</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2275,18 +2287,18 @@
         <v>27</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="1">
         <v>27</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2297,7 +2309,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2308,7 +2320,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2319,18 +2331,18 @@
         <v>27</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s" s="1">
         <v>27</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2375,68 +2387,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2444,76 +2456,76 @@
         <v>46</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2634,7 +2646,7 @@
         <v>55</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>81</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2837,98 +2849,98 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>108</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>112</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>51</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>118</v>
@@ -2936,73 +2948,73 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s" s="0">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s" s="0">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s" s="0">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s" s="0">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>27</v>
@@ -3013,123 +3025,123 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -3145,128 +3157,128 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s" s="0">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s" s="0">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s" s="0">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s" s="0">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s" s="0">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s" s="0">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>27</v>
@@ -3277,46 +3289,46 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s" s="0">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>132</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s" s="0">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s" s="0">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s" s="0">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -3405,73 +3417,73 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>116</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>48</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>150</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>160</v>
+        <v>506</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>47</v>
@@ -3482,35 +3494,35 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>4</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>163</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>51</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4576,7 +4588,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2D1119-38C4-4199-B638-86AFDD4B9CB8}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -4597,838 +4609,1157 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>121</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>212</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>494</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>250</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>252</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>150</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>254</v>
+        <v>506</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>255</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>256</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>245</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>257</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>40</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>228</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>259</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>212</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>262</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>263</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>264</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>140</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>266</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
-        <v>245</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>104</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>259</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s" s="0">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>228</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>267</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>268</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>269</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>20</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>104</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s" s="0">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>252</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s" s="0">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>44</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>272</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>257</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>273</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>136</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>279</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>274</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>262</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>257</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>275</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>274</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>274</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>163</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>228</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>278</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>280</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>136</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>281</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>136</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
-        <v>276</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>238</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
-        <v>283</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>130</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s" s="0">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>281</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s" s="0">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>238</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s" s="0">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>136</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s" s="0">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>12</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>284</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>284</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
-        <v>245</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>257</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>135</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>285</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>266</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>135</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s" s="0">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>274</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>136</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>274</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>287</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>278</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s" s="0">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>284</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C77" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C100" t="s" s="0">
         <v>238</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5438,7 +5769,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8A4683-27E5-4A6F-B915-C4B381902D31}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -5459,134 +5790,1157 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>311</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>313</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>315</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>212</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>319</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>496</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>123</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>498</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>499</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>42</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>500</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>422</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>247</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>106</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>501</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>502</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5708,13 +7062,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>456</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>94</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5725,84 +7079,84 @@
         <v>72</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>132</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>457</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>132</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>327</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>328</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5813,7 +7167,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5821,153 +7175,153 @@
         <v>324</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>332</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>449</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>339</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>114</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s" s="0">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>237</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>135</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s" s="0">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>348</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -5975,241 +7329,241 @@
         <v>324</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>237</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s" s="0">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>336</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>218</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>61</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>351</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>352</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>116</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>48</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>356</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>358</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>195</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>237</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>362</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>148</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>365</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>368</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -6225,57 +7579,57 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s" s="0">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>493</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s" s="0">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>371</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s" s="0">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>230</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -6610,123 +7964,123 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s" s="0">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>54</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s" s="0">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s" s="0">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s" s="0">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="B95" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s" s="0">
-        <v>402</v>
+        <v>322</v>
       </c>
       <c r="B96" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>411</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s" s="0">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B97" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>110</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s" s="0">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>343</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s" s="0">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>182</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s" s="0">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B100" t="s" s="0">
         <v>112</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>407</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s" s="0">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="B101" t="s" s="0">
         <v>112</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>73</v>
+        <v>315</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s" s="0">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>315</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -6734,87 +8088,87 @@
         <v>340</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>54</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s" s="0">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>222</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s" s="0">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>412</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s" s="0">
-        <v>350</v>
+        <v>413</v>
       </c>
       <c r="B106" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s" s="0">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="B107" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s" s="0">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="B108" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>110</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s" s="0">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>394</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s" s="0">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="B110" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>412</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -6825,117 +8179,117 @@
         <v>27</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s" s="0">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B112" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s" s="0">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="B113" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>132</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s" s="0">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="B114" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>417</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s" s="0">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="B115" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>37</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s" s="0">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B116" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s" s="0">
-        <v>419</v>
+        <v>322</v>
       </c>
       <c r="B117" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s" s="0">
-        <v>322</v>
+        <v>420</v>
       </c>
       <c r="B118" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>127</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s" s="0">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B119" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>421</v>
+        <v>290</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s" s="0">
-        <v>423</v>
+        <v>333</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>290</v>
+        <v>387</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s" s="0">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="122">
@@ -7150,7 +8504,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8B74A4-8FA6-4532-83BF-89D7A3288AA9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -7240,24 +8594,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>435</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>472</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7302,6 +8656,17 @@
       </c>
       <c r="C13" t="s" s="0">
         <v>502</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Testdata/Data.xlsx
+++ b/src/test/resources/Testdata/Data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21741" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23241" uniqueCount="512">
   <si>
     <t>Bike model</t>
   </si>
@@ -1555,6 +1555,21 @@
   </si>
   <si>
     <t>Maruti Swift 2018 Maruti Swift AMT VXI</t>
+  </si>
+  <si>
+    <t>Rs. 7.07 Lakh</t>
+  </si>
+  <si>
+    <t>Tata Nexon 2020-2023 Tata Nexon XMA AMT S BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 9.06 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai EON Hyundai EON Era Plus</t>
+  </si>
+  <si>
+    <t>Rs. 2.95 Lakh</t>
   </si>
 </sst>
 </file>
@@ -2183,13 +2198,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>289</v>
+        <v>440</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>285</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2287,18 +2302,18 @@
         <v>27</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="1">
         <v>27</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2309,7 +2324,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2320,7 +2335,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2331,18 +2346,18 @@
         <v>27</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s" s="1">
         <v>27</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2530,24 +2545,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2555,43 +2570,43 @@
         <v>46</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3439,123 +3454,123 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>116</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>48</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>150</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>506</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>127</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>162</v>
+        <v>506</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>51</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>153</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>169</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3582,24 +3597,24 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3607,10 +3622,10 @@
         <v>166</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3621,139 +3636,139 @@
         <v>36</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>175</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>53</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>177</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>47</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>127</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s" s="0">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>179</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>42</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s" s="0">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -3802,90 +3817,90 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>152</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>194</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>148</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -3893,32 +3908,32 @@
         <v>166</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>65</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>199</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -3929,7 +3944,7 @@
         <v>55</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -3940,29 +3955,29 @@
         <v>55</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>116</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3973,128 +3988,128 @@
         <v>27</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>204</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s" s="0">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>150</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s" s="0">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s" s="0">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>136</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>210</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>136</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -4105,62 +4120,62 @@
         <v>27</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>212</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -4168,54 +4183,54 @@
         <v>219</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>148</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s" s="0">
         <v>74</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>222</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>132</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>225</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -4226,62 +4241,62 @@
         <v>27</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>110</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s" s="0">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>228</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s" s="0">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>130</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s" s="0">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>88</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s" s="0">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>230</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s" s="0">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>138</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -4292,78 +4307,78 @@
         <v>27</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>54</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s" s="0">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s" s="0">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s" s="0">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>138</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s" s="0">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s" s="0">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>67</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s" s="0">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>132</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s" s="0">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s" s="0">
         <v>27</v>
@@ -4374,40 +4389,40 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s" s="0">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s" s="0">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>235</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B92" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>135</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s" s="0">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>27</v>
@@ -4418,156 +4433,156 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s" s="0">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B94" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s" s="0">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="B95" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s" s="0">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="B96" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>42</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s" s="0">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B97" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>237</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s" s="0">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>132</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s" s="0">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="B99" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>29</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s" s="0">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="B100" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>238</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s" s="0">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B101" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s" s="0">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>138</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s" s="0">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="B103" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s" s="0">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>34</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s" s="0">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="B105" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>243</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s" s="0">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s" s="0">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>138</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -4609,645 +4624,645 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>152</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>154</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>155</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>170</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>116</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>149</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>112</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>161</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>4</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>162</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>163</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>164</v>
+        <v>497</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>51</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>151</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>153</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>149</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>165</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>169</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
-        <v>156</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>170</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>167</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>148</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>172</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>173</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>174</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>175</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>177</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>127</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s" s="0">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>179</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>180</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>182</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>183</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>152</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>184</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s" s="0">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>186</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s" s="0">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>139</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s" s="0">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>187</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>188</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>189</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>190</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>191</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>193</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
-        <v>178</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>152</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>194</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>195</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>74</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>148</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>197</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>65</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>199</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>148</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>200</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>186</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>201</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>110</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s" s="0">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s" s="0">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s" s="0">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>182</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s" s="0">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>27</v>
@@ -5258,167 +5273,167 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>148</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
-        <v>160</v>
+        <v>254</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>210</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>136</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>180</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>213</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>218</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>220</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s" s="0">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>148</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>222</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>132</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>225</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -5790,145 +5805,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>152</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>154</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>155</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>170</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>116</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>149</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>112</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>161</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>4</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>162</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>163</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>164</v>
+        <v>497</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>51</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>151</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>153</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>149</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>165</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>164</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>127</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15">
@@ -6985,145 +7000,145 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>39</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>73</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>422</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>450</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>451</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>454</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>340</v>
+        <v>453</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>132</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>132</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>50</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>343</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>345</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7131,43 +7146,43 @@
         <v>322</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>346</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>346</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7175,153 +7190,153 @@
         <v>324</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>237</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>110</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>336</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>218</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>61</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s" s="0">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>323</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>325</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>328</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s" s="0">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>449</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -7329,659 +7344,659 @@
         <v>324</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>337</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s" s="0">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>237</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>351</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>352</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>116</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>48</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>356</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>358</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>195</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>135</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>361</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>362</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>148</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>349</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>505</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s" s="0">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s" s="0">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>371</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s" s="0">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>230</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>374</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>349</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>379</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>226</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>382</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>294</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s" s="0">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>387</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B72" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>94</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>390</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>155</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s" s="0">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>394</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s" s="0">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>220</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s" s="0">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s" s="0">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>398</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s" s="0">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>121</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s" s="0">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>10</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s" s="0">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>400</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>401</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s" s="0">
-        <v>402</v>
+        <v>321</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>27</v>
+        <v>400</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s" s="0">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s" s="0">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s" s="0">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s" s="0">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>405</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s" s="0">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>110</v>
+        <v>405</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s" s="0">
-        <v>406</v>
+        <v>324</v>
       </c>
       <c r="B89" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>407</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s" s="0">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>372</v>
+        <v>407</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s" s="0">
-        <v>408</v>
+        <v>340</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s" s="0">
-        <v>340</v>
+        <v>408</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s" s="0">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>409</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -7992,84 +8007,84 @@
         <v>72</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s" s="0">
-        <v>402</v>
+        <v>326</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s" s="0">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B96" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>110</v>
+        <v>410</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s" s="0">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="B97" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>343</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s" s="0">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>182</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s" s="0">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>407</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s" s="0">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>73</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s" s="0">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="B101" t="s" s="0">
         <v>112</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>315</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -8077,59 +8092,59 @@
         <v>340</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s" s="0">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="B103" t="s" s="0">
         <v>112</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>222</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s" s="0">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B104" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>412</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s" s="0">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>110</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s" s="0">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>67</v>
+        <v>412</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s" s="0">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B107" t="s" s="0">
         <v>27</v>
@@ -8140,68 +8155,68 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B108" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>394</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s" s="0">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>412</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s" s="0">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="B110" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>135</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s" s="0">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="B111" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>123</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s" s="0">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B112" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s" s="0">
-        <v>416</v>
+        <v>354</v>
       </c>
       <c r="B113" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>417</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -8212,84 +8227,84 @@
         <v>27</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>37</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s" s="0">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B115" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>125</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s" s="0">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="B116" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>152</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s" s="0">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="B117" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s" s="0">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B118" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>421</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s" s="0">
-        <v>423</v>
+        <v>322</v>
       </c>
       <c r="B119" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>290</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s" s="0">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>387</v>
+        <v>421</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s" s="0">
-        <v>338</v>
+        <v>423</v>
       </c>
       <c r="B121" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>410</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122">
@@ -8334,21 +8349,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>424</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>425</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>426</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>313</v>
@@ -8356,112 +8371,112 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>495</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>90</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>427</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>243</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>428</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>429</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>430</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>431</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>347</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>398</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>433</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>398</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>110</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>435</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>73</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -8528,134 +8543,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>458</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>50</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>459</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>460</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>461</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>464</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>465</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>466</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>467</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>468</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>469</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>472</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>498</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>320</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>42</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>422</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>247</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>502</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14">

--- a/src/test/resources/Testdata/Data.xlsx
+++ b/src/test/resources/Testdata/Data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23241" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26097" uniqueCount="529">
   <si>
     <t>Bike model</t>
   </si>
@@ -1570,6 +1570,57 @@
   </si>
   <si>
     <t>Rs. 2.95 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire LXI 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 5.81 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.66 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.03 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.89 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift ZXI BSIV</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift LXI Option SP Limited Edition</t>
+  </si>
+  <si>
+    <t>Rs. 4.83 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.84 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Urban cruiser Toyota Urban cruiser Premium AT</t>
+  </si>
+  <si>
+    <t>Rs. 11.25 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai EON Hyundai EON D Lite Plus</t>
+  </si>
+  <si>
+    <t>BMW 3 Series 2019-2022 BMW 3 Series 320d Luxury Line</t>
+  </si>
+  <si>
+    <t>Rs. 55.00 Lakh</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz CLA 2014-2016 Mercedes-Benz CLA 200 Sport Edition</t>
+  </si>
+  <si>
+    <t>Rs. 23.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.29 Lakh</t>
   </si>
 </sst>
 </file>
@@ -2066,150 +2117,150 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>72</v>
+        <v>481</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>481</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>485</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>343</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>492</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>347</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>45</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>121</v>
@@ -2220,13 +2271,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2242,13 +2293,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2324,7 +2375,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2335,7 +2386,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2346,7 +2397,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2446,24 +2497,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>52</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>53</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2471,76 +2522,76 @@
         <v>46</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>63</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>65</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2595,29 +2646,29 @@
         <v>36</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>71</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2625,21 +2676,21 @@
         <v>43</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2666,296 +2717,296 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s" s="0">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s" s="0">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>89</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>102</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>112</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>118</v>
@@ -2963,57 +3014,57 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s" s="0">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>127</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s" s="0">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -3073,90 +3124,90 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -3172,128 +3223,128 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s" s="0">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s" s="0">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s" s="0">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s" s="0">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s" s="0">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s" s="0">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s" s="0">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>27</v>
@@ -3304,46 +3355,46 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s" s="0">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s" s="0">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s" s="0">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s" s="0">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -3397,7 +3448,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67967993-A739-423E-A463-F1890938CEA9}">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -3421,200 +3472,200 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>152</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>154</v>
+        <v>521</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>72</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>155</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>170</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>166</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>507</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>116</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>159</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>48</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>150</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>506</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>162</v>
+        <v>524</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>163</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>164</v>
+        <v>508</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>51</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>151</v>
+        <v>526</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>153</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>170</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3622,10 +3673,10 @@
         <v>166</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3636,205 +3687,205 @@
         <v>36</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>53</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>177</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>127</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>47</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>180</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s" s="0">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>42</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>183</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>47</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>152</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
-        <v>166</v>
+        <v>518</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>184</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s" s="0">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>47</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s" s="0">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>139</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s" s="0">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>179</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -3845,103 +3896,103 @@
         <v>55</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>152</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>65</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>148</v>
@@ -3955,7 +4006,7 @@
         <v>55</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>200</v>
+        <v>520</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -3963,10 +4014,10 @@
         <v>166</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>186</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -3977,144 +4028,144 @@
         <v>55</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>132</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>110</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s" s="0">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>150</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s" s="0">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s" s="0">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>182</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>103</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>27</v>
@@ -4125,227 +4176,227 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>212</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>180</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>215</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s" s="0">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>148</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>132</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s" s="0">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>226</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s" s="0">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>110</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s" s="0">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>228</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>130</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s" s="0">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>88</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s" s="0">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>230</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s" s="0">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>138</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s" s="0">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>54</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s" s="0">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s" s="0">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>88</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s" s="0">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>27</v>
@@ -4356,46 +4407,46 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s" s="0">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>127</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s" s="0">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s" s="0">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="B89" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s" s="0">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -4406,62 +4457,62 @@
         <v>27</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>114</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s" s="0">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B92" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>235</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>135</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s" s="0">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B94" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s" s="0">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="B95" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s" s="0">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="B96" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -4499,100 +4550,122 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s" s="0">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="B100" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s" s="0">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="B101" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>29</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s" s="0">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B102" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>238</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s" s="0">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B103" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>67</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s" s="0">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s" s="0">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B106" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>34</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s" s="0">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="B107" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>243</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="B108" t="s" s="0">
+      <c r="B110" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="C108" t="s" s="0">
+      <c r="C110" t="s" s="0">
         <v>138</v>
       </c>
     </row>
@@ -4624,189 +4697,189 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>311</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>313</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>315</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>212</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>86</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>319</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>508</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>509</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>496</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>123</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>510</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>511</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>497</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>498</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>499</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>42</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>500</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>422</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>104</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>259</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>212</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4814,120 +4887,120 @@
         <v>245</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>264</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>140</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>266</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>20</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>259</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>228</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>268</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>269</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>20</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4935,175 +5008,175 @@
         <v>271</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>104</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s" s="0">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>257</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s" s="0">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s" s="0">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>136</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>274</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>274</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s" s="0">
         <v>74</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>163</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>228</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>278</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -5114,7 +5187,7 @@
         <v>27</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -5130,134 +5203,134 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>281</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B49" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>136</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>238</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>88</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>135</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>130</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>281</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>238</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s" s="0">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>136</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s" s="0">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>12</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s" s="0">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>284</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s" s="0">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -5268,73 +5341,73 @@
         <v>27</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>257</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>135</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>135</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>238</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>228</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>285</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -5345,18 +5418,18 @@
         <v>27</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -5372,46 +5445,46 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>136</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B72" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>278</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -5805,134 +5878,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>313</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>315</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>212</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>86</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>165</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>508</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>509</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>496</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>123</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>510</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>511</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>497</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>498</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>499</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>42</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>500</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>422</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14">
@@ -6965,7 +7038,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2186C7-FFE6-4CDF-992E-4D48874A8CF8}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -6989,728 +7062,728 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>329</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>448</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>411</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>73</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>450</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>451</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>454</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>340</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>132</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>132</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>323</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>325</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>449</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>339</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s" s="0">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>114</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>237</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>343</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>345</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s" s="0">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s" s="0">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>237</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s" s="0">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>330</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>110</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>218</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>61</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>351</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>352</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>116</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>48</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>356</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>358</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>195</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>135</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>237</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>361</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>362</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>148</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>349</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>505</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s" s="0">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s" s="0">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s" s="0">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s" s="0">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>371</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>230</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>349</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>379</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -7718,7 +7791,7 @@
         <v>324</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>226</v>
@@ -7726,299 +7799,299 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s" s="0">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>294</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>387</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>94</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>390</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s" s="0">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>155</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s" s="0">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>394</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s" s="0">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>220</v>
+        <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s" s="0">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s" s="0">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>398</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s" s="0">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>121</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s" s="0">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>10</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s" s="0">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>400</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>401</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s" s="0">
-        <v>402</v>
+        <v>321</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>27</v>
+        <v>400</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s" s="0">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s" s="0">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s" s="0">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s" s="0">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>405</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s" s="0">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>110</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s" s="0">
-        <v>406</v>
+        <v>324</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>407</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s" s="0">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>372</v>
+        <v>407</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s" s="0">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>368</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s" s="0">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>54</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s" s="0">
-        <v>340</v>
+        <v>408</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s" s="0">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>409</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -8029,84 +8102,84 @@
         <v>72</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s" s="0">
-        <v>402</v>
+        <v>326</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s" s="0">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>110</v>
+        <v>410</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s" s="0">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="B99" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>343</v>
+        <v>411</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s" s="0">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>182</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s" s="0">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>407</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s" s="0">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>73</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s" s="0">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="B103" t="s" s="0">
         <v>112</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>315</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -8114,59 +8187,59 @@
         <v>340</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s" s="0">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="B105" t="s" s="0">
         <v>112</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>222</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s" s="0">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B106" t="s" s="0">
         <v>72</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>412</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s" s="0">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>110</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s" s="0">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>67</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s" s="0">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>27</v>
@@ -8177,68 +8250,68 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B110" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>394</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s" s="0">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="B111" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>412</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s" s="0">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="B112" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>135</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s" s="0">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="B113" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>123</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s" s="0">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B114" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s" s="0">
-        <v>416</v>
+        <v>354</v>
       </c>
       <c r="B115" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>417</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -8249,72 +8322,105 @@
         <v>27</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>37</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s" s="0">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B117" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>125</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s" s="0">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="B118" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>152</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s" s="0">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="B119" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s" s="0">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B120" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>421</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s" s="0">
-        <v>423</v>
+        <v>322</v>
       </c>
       <c r="B121" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>290</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
         <v>338</v>
       </c>
-      <c r="B122" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C122" t="s" s="0">
+      <c r="B125" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C125" t="s" s="0">
         <v>410</v>
       </c>
     </row>
@@ -8360,123 +8466,123 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>521</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>313</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>121</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>245</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>212</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>86</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>165</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>508</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>509</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>496</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>510</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>511</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>498</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>42</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>422</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -8554,123 +8660,123 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>521</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>313</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>121</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
-        <v>245</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>212</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>86</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>165</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
-        <v>508</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>509</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
-        <v>496</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
-        <v>510</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>511</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>498</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>42</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>422</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14">

--- a/src/test/resources/Testdata/Data.xlsx
+++ b/src/test/resources/Testdata/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303727\eclipse-workspace\Identify_New_Bikes\src\test\resources\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VISHNU KOSANA\eclipse-workspace\Identify_New_Bikes\src\test\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CBACBD-39F9-4BFB-B555-97B0A76D71E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BF22E9-30FC-4ABF-B27F-3B20E2C0A4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="9" xr2:uid="{E4213508-EAF9-46AB-836E-979B79A9D986}"/>
+    <workbookView xWindow="5760" yWindow="1104" windowWidth="17280" windowHeight="8880" xr2:uid="{E4213508-EAF9-46AB-836E-979B79A9D986}"/>
   </bookViews>
   <sheets>
     <sheet name="upcoming bikes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7434" uniqueCount="468">
   <si>
     <t>Bike model</t>
   </si>
@@ -120,27 +120,330 @@
     <t/>
   </si>
   <si>
+    <t>Rs. 1.00 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti 800 Maruti 800 Std</t>
+  </si>
+  <si>
+    <t>Rs. 70,000</t>
+  </si>
+  <si>
     <t>Rs. 30,000</t>
   </si>
   <si>
-    <t>Rs. 1.00 Lakh</t>
-  </si>
-  <si>
     <t>Rs. 55,000</t>
   </si>
   <si>
     <t>Rs. 80,000</t>
   </si>
   <si>
-    <t>Maruti 800 Maruti 800 Std</t>
-  </si>
-  <si>
-    <t>Rs. 70,000</t>
-  </si>
-  <si>
     <t>Rs. 1.40 Lakh</t>
   </si>
   <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire ZXI</t>
+  </si>
+  <si>
+    <t>Nandanam</t>
+  </si>
+  <si>
+    <t>Rs. 5.75 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire VXI 1.2</t>
+  </si>
+  <si>
+    <t>Kottivakkam</t>
+  </si>
+  <si>
+    <t>Rs. 6.10 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire ZXI 1.2</t>
+  </si>
+  <si>
+    <t>Ganapathipuram</t>
+  </si>
+  <si>
+    <t>Rs. 6.83 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT ZDI</t>
+  </si>
+  <si>
+    <t>Rs. 7.76 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.70 Lakh</t>
+  </si>
+  <si>
+    <t>Thiruverkadu</t>
+  </si>
+  <si>
+    <t>Rs. 6.49 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.64 Lakh</t>
+  </si>
+  <si>
+    <t>Meenambakkam</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire LDI</t>
+  </si>
+  <si>
+    <t>Rs. 4.20 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT VXI</t>
+  </si>
+  <si>
+    <t>Rs. 6.66 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 8.03 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT ZXI Plus</t>
+  </si>
+  <si>
+    <t>Rs. 6.41 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire VDI</t>
+  </si>
+  <si>
+    <t>Rs. 5.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.64 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.16 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.89 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire ZDI Plus</t>
+  </si>
+  <si>
+    <t>Nungambakkam</t>
+  </si>
+  <si>
+    <t>Rs. 6.95 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire LDI</t>
+  </si>
+  <si>
+    <t>Rs. 4.80 Lakh</t>
+  </si>
+  <si>
+    <t>Anna Nagar</t>
+  </si>
+  <si>
+    <t>Rs. 7.50 Lakh</t>
+  </si>
+  <si>
+    <t>MEENAMBAKKAM</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI Plus AT BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 8.38 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.74 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI AT BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 8.21 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire VXI AT BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 7.56 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.58 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire VDi</t>
+  </si>
+  <si>
+    <t>Rs. 4.30 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VDI</t>
+  </si>
+  <si>
+    <t>Rs. 3.25 Lakh</t>
+  </si>
+  <si>
+    <t>Medavakkam</t>
+  </si>
+  <si>
+    <t>Rs. 8.25 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT VXI BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 7.45 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI Plus BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 8.75 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire LDI</t>
+  </si>
+  <si>
+    <t>Rs. 3.18 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.30 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire VXi</t>
+  </si>
+  <si>
+    <t>Rs. 3.55 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire VDI</t>
+  </si>
+  <si>
+    <t>Rs. 2.97 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire LXi</t>
+  </si>
+  <si>
+    <t>Ambattur</t>
+  </si>
+  <si>
+    <t>Rs. 4.95 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.10 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VXI</t>
+  </si>
+  <si>
+    <t>Rs. 2.45 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VXi AT</t>
+  </si>
+  <si>
+    <t>Porur</t>
+  </si>
+  <si>
+    <t>Rs. 3.60 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.80 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire ZDI</t>
+  </si>
+  <si>
+    <t>Rs. 7.00 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire ZXi</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire VXI BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 4.10 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Tour 2012-2018 Maruti Swift Dzire LXI</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire VXI 1.2 BS IV</t>
+  </si>
+  <si>
+    <t>Thygaraya Nagar</t>
+  </si>
+  <si>
+    <t>Rs. 5.76 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire VXI</t>
+  </si>
+  <si>
+    <t>Rs. 4.00 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire ZDI</t>
+  </si>
+  <si>
+    <t>Rs. 5.00 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire ZXI</t>
+  </si>
+  <si>
+    <t>Rs. 6.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.50 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire ZXI 1.2 BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 6.00 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT ZXI BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 7.04 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.50 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Tour 2012-2018 Maruti Swift Dzire S</t>
+  </si>
+  <si>
+    <t>Rs. 4.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.20 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.20 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire ZXI Plus</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire VXI AT</t>
+  </si>
+  <si>
     <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire ZDi</t>
   </si>
   <si>
@@ -150,366 +453,66 @@
     <t>Rs. 3.65 Lakh</t>
   </si>
   <si>
-    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire ZXI</t>
-  </si>
-  <si>
-    <t>Nandanam</t>
-  </si>
-  <si>
-    <t>Rs. 5.75 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire VXI 1.2</t>
-  </si>
-  <si>
-    <t>Kottivakkam</t>
-  </si>
-  <si>
-    <t>Rs. 6.10 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire ZXI 1.2</t>
-  </si>
-  <si>
-    <t>Ganapathipuram</t>
-  </si>
-  <si>
-    <t>Rs. 6.83 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT ZDI</t>
-  </si>
-  <si>
-    <t>Rs. 7.76 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.70 Lakh</t>
-  </si>
-  <si>
-    <t>Thiruverkadu</t>
-  </si>
-  <si>
-    <t>Rs. 6.49 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI</t>
-  </si>
-  <si>
-    <t>Rs. 5.64 Lakh</t>
-  </si>
-  <si>
-    <t>Meenambakkam</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire LDI</t>
-  </si>
-  <si>
-    <t>Rs. 4.20 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT VXI</t>
-  </si>
-  <si>
-    <t>Rs. 6.66 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 8.03 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT ZXI Plus</t>
-  </si>
-  <si>
-    <t>Rs. 6.41 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire VDI</t>
-  </si>
-  <si>
-    <t>Rs. 5.50 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.64 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.30 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.89 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire ZDI Plus</t>
-  </si>
-  <si>
-    <t>Nungambakkam</t>
-  </si>
-  <si>
-    <t>Rs. 6.95 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire LDI</t>
-  </si>
-  <si>
-    <t>Rs. 4.80 Lakh</t>
-  </si>
-  <si>
-    <t>Anna Nagar</t>
-  </si>
-  <si>
-    <t>Rs. 7.50 Lakh</t>
-  </si>
-  <si>
-    <t>MEENAMBAKKAM</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI Plus AT BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 8.38 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.74 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI AT BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 8.21 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire Maruti Swift Dzire VXI AT BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 7.56 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.58 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire VDi</t>
-  </si>
-  <si>
-    <t>Rs. 4.30 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VDI</t>
-  </si>
-  <si>
-    <t>Rs. 3.25 Lakh</t>
-  </si>
-  <si>
-    <t>Medavakkam</t>
-  </si>
-  <si>
-    <t>Rs. 8.25 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT VXI BS IV</t>
-  </si>
-  <si>
-    <t>Rs. 7.45 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI Plus BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 8.75 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire LDI</t>
-  </si>
-  <si>
-    <t>Rs. 3.18 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire VXi</t>
-  </si>
-  <si>
-    <t>Rs. 3.55 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire VDI</t>
-  </si>
-  <si>
-    <t>Rs. 2.97 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire LXi</t>
-  </si>
-  <si>
-    <t>Ambattur</t>
-  </si>
-  <si>
-    <t>Rs. 4.95 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.10 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VXI</t>
-  </si>
-  <si>
-    <t>Rs. 2.45 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VXi AT</t>
-  </si>
-  <si>
-    <t>Porur</t>
-  </si>
-  <si>
-    <t>Rs. 3.60 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.80 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire ZDI</t>
-  </si>
-  <si>
-    <t>Rs. 7.00 Lakh</t>
+    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire 1.2 Lxi BSIV</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VXI Optional</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT VDI</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire LXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire VXi AT</t>
+  </si>
+  <si>
+    <t>Rs. 4.75 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift 1.3 VXi</t>
+  </si>
+  <si>
+    <t>Rs. 2.80 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VDI BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 6.25 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift ZXI BSIV</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift ZXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VXI BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 6.05 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VXI Optional</t>
+  </si>
+  <si>
+    <t>Rs. 5.04 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 7.07 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift DDiS VDI</t>
   </si>
   <si>
     <t>Rs. 5.95 Lakh</t>
   </si>
   <si>
-    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire ZXi</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire Maruti Swift Dzire VXI BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 4.10 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire Tour 2012-2018 Maruti Swift Dzire LXI</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire VXI 1.2 BS IV</t>
-  </si>
-  <si>
-    <t>Thygaraya Nagar</t>
-  </si>
-  <si>
-    <t>Rs. 5.76 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire VXI</t>
-  </si>
-  <si>
-    <t>Rs. 4.00 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire ZDI</t>
-  </si>
-  <si>
-    <t>Rs. 5.00 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire ZXI</t>
-  </si>
-  <si>
-    <t>Rs. 6.50 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.50 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire ZXI 1.2 BS IV</t>
-  </si>
-  <si>
-    <t>Rs. 6.00 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT ZXI BS IV</t>
-  </si>
-  <si>
-    <t>Rs. 7.04 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.00 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.50 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire Tour 2012-2018 Maruti Swift Dzire S</t>
-  </si>
-  <si>
-    <t>Rs. 4.50 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.20 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.20 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire ZXI Plus</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire Maruti Swift Dzire VXI AT</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire 1.2 Lxi BSIV</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VXI Optional</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT VDI</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire LXI</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2011-2014 Maruti Swift Dzire VXi AT</t>
-  </si>
-  <si>
-    <t>Rs. 4.75 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2004-2010 Maruti Swift 1.3 VXi</t>
-  </si>
-  <si>
-    <t>Rs. 2.80 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift VDI BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 6.25 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift ZXI BSIV</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift ZXI</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift VXI BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 6.05 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift VXI Optional</t>
-  </si>
-  <si>
-    <t>Rs. 5.04 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Maruti Swift VXI</t>
-  </si>
-  <si>
-    <t>Rs. 7.07 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift DDiS VDI</t>
-  </si>
-  <si>
     <t>Maruti Swift 2014-2021 Maruti Swift VVT ZXI</t>
   </si>
   <si>
@@ -525,15 +528,42 @@
     <t>Rs. 3.40 Lakh</t>
   </si>
   <si>
+    <t>Rs. 4.99 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 7.25 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.02 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.05 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.46 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.98 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift ZXI Plus DT AMT BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 4.61 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift AMT VXI</t>
+  </si>
+  <si>
     <t>Rs. 5.25 Lakh</t>
   </si>
   <si>
     <t>Maruti Swift 2018 Maruti Swift VXI</t>
   </si>
   <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift VXI</t>
-  </si>
-  <si>
     <t>Rs. 4.60 Lakh</t>
   </si>
   <si>
@@ -549,9 +579,6 @@
     <t>Rs. 5.30 Lakh</t>
   </si>
   <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift AMT VXI</t>
-  </si>
-  <si>
     <t>Rs. 6.40 Lakh</t>
   </si>
   <si>
@@ -567,33 +594,6 @@
     <t>Maruti Swift 2014-2021 Maruti Swift VVT VXI</t>
   </si>
   <si>
-    <t>Rs. 4.99 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.25 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.02 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.05 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.46 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.98 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.32 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Maruti Swift ZXI Plus DT AMT BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 4.61 Lakh</t>
-  </si>
-  <si>
     <t>Maruti Swift Maruti Swift ZXI</t>
   </si>
   <si>
@@ -747,10 +747,688 @@
     <t>Rs. 4.90 Lakh</t>
   </si>
   <si>
+    <t>Hyundai i10 Hyundai i10 Magna</t>
+  </si>
+  <si>
+    <t>Chromepet</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz</t>
+  </si>
+  <si>
+    <t>Rs. 3.11 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.15 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna 1.1L</t>
+  </si>
+  <si>
+    <t>Rs. 3.37 Lakh</t>
+  </si>
+  <si>
+    <t>Kilpauk</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Asta</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz 1.1L</t>
+  </si>
+  <si>
+    <t>Rs. 2.85 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2 AT</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 2.60 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.13 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Asta 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 2.90 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.16 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz AT</t>
+  </si>
+  <si>
+    <t>Rs. 3.45 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.20 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Magna AT</t>
+  </si>
+  <si>
+    <t>Rs. 2.40 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 1.65 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Era</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.1</t>
+  </si>
+  <si>
+    <t>Rs. 2.25 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.59 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.02 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.10 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.00 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna 1.2 iTech SE</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna 1.1 iTech SE</t>
+  </si>
+  <si>
+    <t>Rs. 1.80 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.15 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 50,000</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz 1.1L LPG</t>
+  </si>
+  <si>
+    <t>Rs. 2.43 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GL Plus</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XL</t>
+  </si>
+  <si>
+    <t>Rs. 1.50 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XO eRLX Euro II</t>
+  </si>
+  <si>
+    <t>Rs. 1.85 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XO</t>
+  </si>
+  <si>
+    <t>Rs. 1.30 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GLS</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GL</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XG eRLX Euro II</t>
+  </si>
+  <si>
+    <t>Rs. 60,000</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GLS LPG</t>
+  </si>
+  <si>
+    <t>Rs. 75,000</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC CVT SV</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC CVT ZX</t>
+  </si>
+  <si>
+    <t>Rs. 14.40 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC CVT SV</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC SV</t>
+  </si>
+  <si>
+    <t>Anna Nagar West Extension</t>
+  </si>
+  <si>
+    <t>Rs. 5.65 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 8.10 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC VX</t>
+  </si>
+  <si>
+    <t>Rs. 6.85 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC VX Option BL</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC CVT VX</t>
+  </si>
+  <si>
+    <t>Rs. 7.18 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i DTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 6.19 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2020-2023 Honda City ZX CVT</t>
+  </si>
+  <si>
+    <t>Rs. 13.25 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2008-2011 Honda City 1.5 V MT Exclusive</t>
+  </si>
+  <si>
+    <t>Rs. 5.55 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC CVT VX</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City VX MT</t>
+  </si>
+  <si>
+    <t>Rs. 5.85 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.98 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC VX</t>
+  </si>
+  <si>
+    <t>Rs. 10.25 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.83 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.78 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.71 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 7.10 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2011-2013 Honda City V MT</t>
+  </si>
+  <si>
+    <t>Rs. 4.77 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.29 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2020-2023 Honda City ZX MT</t>
+  </si>
+  <si>
+    <t>Rs. 13.07 Lakh</t>
+  </si>
+  <si>
     <t>Rs. 6.90 Lakh</t>
   </si>
   <si>
-    <t>Rs. 2.00 Lakh</t>
+    <t>Rs. 6.80 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 12.08 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.35 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.24 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.69 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC ZX</t>
+  </si>
+  <si>
+    <t>Rs. 12.90 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.35 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.72 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 11.92 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 10.75 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC VX</t>
+  </si>
+  <si>
+    <t>Honda City 2008-2011 Honda City 1.5 S MT</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City SV MT</t>
+  </si>
+  <si>
+    <t>Rs. 7.72 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City V MT</t>
+  </si>
+  <si>
+    <t>Rs. 9.49 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 13.60 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2011-2013 Honda City V AT</t>
+  </si>
+  <si>
+    <t>Rs. 7.43 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 10.88 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.69 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.46 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.15 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2008-2011 Honda City 1.5 V MT</t>
+  </si>
+  <si>
+    <t>Rs. 4.07 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.46 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.51 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2020-2023 Honda City V MT</t>
+  </si>
+  <si>
+    <t>Rs. 8.83 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.61 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC S</t>
+  </si>
+  <si>
+    <t>Rs. 5.41 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City ZX CVT</t>
+  </si>
+  <si>
+    <t>Rs. 12.33 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-DTEC ZX</t>
+  </si>
+  <si>
+    <t>Rs. 8.17 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.21 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2020-2023 Honda City VX MT</t>
+  </si>
+  <si>
+    <t>Rs. 9.82 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.31 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2003-2005 Honda City 1.5 GXI</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC SV</t>
+  </si>
+  <si>
+    <t>Rs. 5.90 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City V AT</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i DTec VX</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City ZX MT</t>
+  </si>
+  <si>
+    <t>Rs. 12.30 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City Anniversary i-VTEC CVT ZX</t>
+  </si>
+  <si>
+    <t>Rs. 9.80 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC E</t>
+  </si>
+  <si>
+    <t>Rs. 10.00 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i DTec SV</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC E</t>
+  </si>
+  <si>
+    <t>Honda City Honda City V CVT</t>
+  </si>
+  <si>
+    <t>Rs. 11.75 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 9.90 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.70 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.99 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2020-2023 Honda City V CVT</t>
+  </si>
+  <si>
+    <t>Rs. 12.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.35 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC SV</t>
+  </si>
+  <si>
+    <t>Rs. 8.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.60 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC CVT VX</t>
+  </si>
+  <si>
+    <t>Rs. 8.30 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 9.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 9.75 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.55 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC S</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC CVT V</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC V</t>
+  </si>
+  <si>
+    <t>Honda City 2011-2013 Honda City S</t>
+  </si>
+  <si>
+    <t>Rs. 2.76 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i DTEC SV</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-DTEC VX</t>
+  </si>
+  <si>
+    <t>Honda City 2011-2013 Honda City 1.5 S AT</t>
+  </si>
+  <si>
+    <t>Rs. 4.15 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 G4 Diesel 8-seater</t>
+  </si>
+  <si>
+    <t>Rs. 4.65 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 V Diesel 7-seater</t>
+  </si>
+  <si>
+    <t>Rs. 5.40 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 VX (Diesel) 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 12.69 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2009-2012 Toyota Innova 2.5 VX 7 STR</t>
+  </si>
+  <si>
+    <t>Rs. 11.15 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 G (Diesel) 8 Seater BS III</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 8 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 G (Diesel) 8 Seater</t>
+  </si>
+  <si>
+    <t>Rs. 15.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 8 Seater</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 VX (Diesel) 8 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 E</t>
+  </si>
+  <si>
+    <t>Rs. 6.99 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 7 Seater</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 G (Diesel) 7 Seater</t>
+  </si>
+  <si>
+    <t>Rs. 13.50 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2011-2016 Toyota Fortuner 4x4 MT</t>
+  </si>
+  <si>
+    <t>Rs. 15.75 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2016-2021 Toyota Fortuner TRD 4X4 AT</t>
+  </si>
+  <si>
+    <t>Rs. 31.90 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2016-2021 Toyota Fortuner 2.8 4WD AT</t>
+  </si>
+  <si>
+    <t>Rs. 31.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2011-2016 Toyota Fortuner 4x2 AT TRD Sportivo</t>
+  </si>
+  <si>
+    <t>Rs. 29.49 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner Toyota Fortuner 4X4 Diesel</t>
+  </si>
+  <si>
+    <t>Rs. 38.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner Toyota Fortuner 4X2 Diesel BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 37.00 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner Toyota Fortuner 4X2 Diesel AT</t>
+  </si>
+  <si>
+    <t>Rs. 41.00 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 AT W6 2WD</t>
+  </si>
+  <si>
+    <t>Rs. 14.00 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 AT W9 2WD</t>
+  </si>
+  <si>
+    <t>Rs. 13.85 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W9 1.99</t>
+  </si>
+  <si>
+    <t>Ashoknagar</t>
+  </si>
+  <si>
+    <t>Rs. 17.50 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W7</t>
+  </si>
+  <si>
+    <t>Rs. 12.29 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W6 2WD</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W9</t>
+  </si>
+  <si>
+    <t>Rs. 16.64 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W11 Option AT BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 15.45 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W4</t>
+  </si>
+  <si>
+    <t>Rs. 6.30 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.95 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W8 2WD</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W4 1.99 mHawk</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W7 AT</t>
+  </si>
+  <si>
+    <t>Rs. 14.50 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W6 2WD</t>
+  </si>
+  <si>
+    <t>Rs. 9.50 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W8 FWD</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W5 BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 11.00 Lakh</t>
   </si>
   <si>
     <t>Maruti Swift Maruti Swift LXI BSVI</t>
@@ -760,729 +1438,6 @@
   </si>
   <si>
     <t>Maruti Swift Maruti Swift ZXI BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 5.40 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2018 Maruti Swift VDI</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz GLE 2020-2023 Mercedes-Benz GLE 300d BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 75.00 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Urban cruiser Toyota Urban cruiser Premium AT</t>
-  </si>
-  <si>
-    <t>Anna Nagar West Extension</t>
-  </si>
-  <si>
-    <t>Rs. 11.25 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Celerio 2017-2021 Maruti Celerio ZXI MT BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 4.65 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai EON Hyundai EON D Lite Plus</t>
-  </si>
-  <si>
-    <t>Rs. 2.85 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Ertiga 2015-2022 Maruti Ertiga VXI AT</t>
-  </si>
-  <si>
-    <t>Rs. 9.75 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Magna</t>
-  </si>
-  <si>
-    <t>Honda Amaze 2013-2016 Honda Amaze S i-Vtech</t>
-  </si>
-  <si>
-    <t>Chromepet</t>
-  </si>
-  <si>
-    <t>Hyundai Grand i10 Nios 2019-2023 Hyundai Grand i10 Nios AMT Sportz</t>
-  </si>
-  <si>
-    <t>Royapettah</t>
-  </si>
-  <si>
-    <t>BMW 3 Series 2019-2022 BMW 3 Series 320d Luxury Line</t>
-  </si>
-  <si>
-    <t>Rs. 55.00 Lakh</t>
-  </si>
-  <si>
-    <t>Tata Nexon 2020-2023 Tata Nexon XMA AMT S BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 9.06 Lakh</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz CLA 2014-2016 Mercedes-Benz CLA 200 Sport Edition</t>
-  </si>
-  <si>
-    <t>Rs. 23.00 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Sportz</t>
-  </si>
-  <si>
-    <t>Rs. 3.11 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.15 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Asta AT</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Magna AT</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Magna 1.1L</t>
-  </si>
-  <si>
-    <t>Rs. 3.37 Lakh</t>
-  </si>
-  <si>
-    <t>Kilpauk</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Asta</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Sportz 1.1L</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2 AT</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.2</t>
-  </si>
-  <si>
-    <t>Rs. 2.60 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.13 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.04 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Asta 1.2</t>
-  </si>
-  <si>
-    <t>Rs. 2.90 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.16 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Sportz AT</t>
-  </si>
-  <si>
-    <t>Rs. 3.45 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.20 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.40 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 1.65 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Era</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.1</t>
-  </si>
-  <si>
-    <t>Rs. 2.25 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.59 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.02 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.10 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Magna 1.2 iTech SE</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Magna 1.1 iTech SE</t>
-  </si>
-  <si>
-    <t>Rs. 1.80 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.15 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 50,000</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Sportz 1.1L LPG</t>
-  </si>
-  <si>
-    <t>Rs. 2.43 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing GL Plus</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing XL</t>
-  </si>
-  <si>
-    <t>Rs. 1.50 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing XO eRLX Euro II</t>
-  </si>
-  <si>
-    <t>Rs. 1.85 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing XO</t>
-  </si>
-  <si>
-    <t>Rs. 1.30 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing GLS</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing GL</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing XG eRLX Euro II</t>
-  </si>
-  <si>
-    <t>Rs. 60,000</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing GLS LPG</t>
-  </si>
-  <si>
-    <t>Rs. 75,000</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC CVT SV</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-VTEC CVT ZX</t>
-  </si>
-  <si>
-    <t>Rs. 14.40 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC CVT SV</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC SV</t>
-  </si>
-  <si>
-    <t>Rs. 5.65 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City SV MT</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC S</t>
-  </si>
-  <si>
-    <t>Rs. 5.96 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC V</t>
-  </si>
-  <si>
-    <t>Rs. 8.10 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC VX</t>
-  </si>
-  <si>
-    <t>Rs. 6.85 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC VX Option BL</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC CVT VX</t>
-  </si>
-  <si>
-    <t>Rs. 7.18 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i DTEC V</t>
-  </si>
-  <si>
-    <t>Rs. 6.19 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2020-2023 Honda City ZX CVT</t>
-  </si>
-  <si>
-    <t>Rs. 13.25 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2008-2011 Honda City 1.5 V MT Exclusive</t>
-  </si>
-  <si>
-    <t>Rs. 5.55 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC CVT VX</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City VX MT</t>
-  </si>
-  <si>
-    <t>Rs. 5.85 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.98 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-VTEC VX</t>
-  </si>
-  <si>
-    <t>Rs. 10.25 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.83 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.78 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.71 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC V</t>
-  </si>
-  <si>
-    <t>Rs. 7.10 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2011-2013 Honda City V MT</t>
-  </si>
-  <si>
-    <t>Rs. 4.77 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.29 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2020-2023 Honda City ZX MT</t>
-  </si>
-  <si>
-    <t>Rs. 13.07 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.80 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 12.08 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.35 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 8.50 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.24 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.69 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-VTEC ZX</t>
-  </si>
-  <si>
-    <t>Rs. 12.90 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 8.35 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.72 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 11.92 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 10.75 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC VX</t>
-  </si>
-  <si>
-    <t>Honda City 2008-2011 Honda City 1.5 S MT</t>
-  </si>
-  <si>
-    <t>Rs. 7.72 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City V MT</t>
-  </si>
-  <si>
-    <t>Rs. 9.49 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 13.60 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2011-2013 Honda City V AT</t>
-  </si>
-  <si>
-    <t>Rs. 7.43 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 10.88 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.69 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.46 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.15 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2008-2011 Honda City 1.5 V MT</t>
-  </si>
-  <si>
-    <t>Rs. 4.07 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.46 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.51 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i DTEC VX</t>
-  </si>
-  <si>
-    <t>Rs. 5.86 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2020-2023 Honda City V MT</t>
-  </si>
-  <si>
-    <t>Rs. 8.83 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.61 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC S</t>
-  </si>
-  <si>
-    <t>Rs. 5.41 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City ZX CVT</t>
-  </si>
-  <si>
-    <t>Rs. 12.33 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-DTEC ZX</t>
-  </si>
-  <si>
-    <t>Rs. 8.17 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.21 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2020-2023 Honda City VX MT</t>
-  </si>
-  <si>
-    <t>Rs. 9.82 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2003-2005 Honda City 1.5 GXI</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC SV</t>
-  </si>
-  <si>
-    <t>Rs. 5.90 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City V AT</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i DTec VX</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City ZX MT</t>
-  </si>
-  <si>
-    <t>Rs. 12.30 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City Anniversary i-VTEC CVT ZX</t>
-  </si>
-  <si>
-    <t>Rs. 9.80 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC E</t>
-  </si>
-  <si>
-    <t>Rs. 10.00 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i DTec SV</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC E</t>
-  </si>
-  <si>
-    <t>Honda City Honda City V CVT</t>
-  </si>
-  <si>
-    <t>Rs. 11.75 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 9.90 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 8.70 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.99 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2020-2023 Honda City V CVT</t>
-  </si>
-  <si>
-    <t>Rs. 12.00 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.35 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-VTEC SV</t>
-  </si>
-  <si>
-    <t>Rs. 8.00 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.60 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-VTEC CVT VX</t>
-  </si>
-  <si>
-    <t>Rs. 8.30 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 9.00 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.55 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova Toyota Innova 2.5 EV Diesel PS 7 Seater BSIII</t>
-  </si>
-  <si>
-    <t>Rs. 13.50 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 G4 Diesel 8-seater</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 7 Seater</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 V Diesel 7-seater</t>
-  </si>
-  <si>
-    <t>Toyota Innova Toyota Innova 2.5 VX (Diesel) 7 Seater BS IV</t>
-  </si>
-  <si>
-    <t>Rs. 12.69 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2009-2012 Toyota Innova 2.5 VX 7 STR</t>
-  </si>
-  <si>
-    <t>Rs. 11.15 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 G (Diesel) 8 Seater BS III</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 8 Seater BS IV</t>
-  </si>
-  <si>
-    <t>Toyota Innova Toyota Innova 2.5 G (Diesel) 8 Seater</t>
-  </si>
-  <si>
-    <t>Rs. 15.00 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 8 Seater</t>
-  </si>
-  <si>
-    <t>Toyota Innova Toyota Innova 2.5 VX (Diesel) 8 Seater BS IV</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2004-2011 Toyota Innova 2.5 E</t>
-  </si>
-  <si>
-    <t>Rs. 6.99 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2011-2016 Toyota Fortuner 4x4 MT</t>
-  </si>
-  <si>
-    <t>Rs. 15.75 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2016-2021 Toyota Fortuner TRD 4X4 AT</t>
-  </si>
-  <si>
-    <t>Rs. 31.90 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2016-2021 Toyota Fortuner 2.8 4WD AT</t>
-  </si>
-  <si>
-    <t>Rs. 31.00 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2011-2016 Toyota Fortuner 4x2 AT TRD Sportivo</t>
-  </si>
-  <si>
-    <t>Rs. 29.49 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner Toyota Fortuner 4X4 Diesel</t>
-  </si>
-  <si>
-    <t>Rs. 38.00 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner Toyota Fortuner 4X2 Diesel BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 37.00 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner Toyota Fortuner 4X2 Diesel AT</t>
-  </si>
-  <si>
-    <t>Rs. 41.00 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W8 2WD</t>
-  </si>
-  <si>
-    <t>Rs. 6.65 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 Mahindra XUV500 AT W6 2WD</t>
-  </si>
-  <si>
-    <t>Rs. 14.00 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 Mahindra XUV500 AT W9 2WD</t>
-  </si>
-  <si>
-    <t>Rs. 13.85 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 Mahindra XUV500 W9 1.99</t>
-  </si>
-  <si>
-    <t>Ashoknagar</t>
-  </si>
-  <si>
-    <t>Rs. 17.50 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 Mahindra XUV500 W7</t>
-  </si>
-  <si>
-    <t>Rs. 12.29 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W6 2WD</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 Mahindra XUV500 W9</t>
-  </si>
-  <si>
-    <t>Rs. 16.64 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 Mahindra XUV500 W11 Option AT BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 15.45 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 Mahindra XUV500 W4</t>
-  </si>
-  <si>
-    <t>Rs. 6.30 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.95 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 Mahindra XUV500 W4 1.99 mHawk</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 Mahindra XUV500 W7 AT</t>
-  </si>
-  <si>
-    <t>Rs. 14.50 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 Mahindra XUV500 W6 2WD</t>
-  </si>
-  <si>
-    <t>Rs. 9.50 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W8 FWD</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 Mahindra XUV500 W5 BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 11.00 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova Toyota Innova 2.5 G (Diesel) 7 Seater</t>
   </si>
 </sst>
 </file>
@@ -1844,18 +1799,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951963A-8562-4595-A577-8BA0E0730467}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="22.0"/>
-    <col min="2" max="2" customWidth="true" width="19.85546875"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625"/>
+    <col min="2" max="2" customWidth="true" width="19.88671875"/>
+    <col min="3" max="3" customWidth="true" width="26.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1963,16 +1918,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004F4FFE-709B-421A-9F56-60F676E2422F}">
   <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="62.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="22.85546875"/>
+    <col min="2" max="2" customWidth="true" width="22.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1985,297 +1940,286 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>480</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2289,12 +2233,12 @@
       <selection activeCell="B7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="62.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="22.85546875"/>
+    <col min="2" max="2" customWidth="true" width="22.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2313,7 +2257,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -2324,7 +2268,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -2335,7 +2279,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -2346,7 +2290,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -2357,23 +2301,23 @@
         <v>27</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>27</v>
@@ -2382,117 +2326,101 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2500,18 +2428,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F332C985-B90F-4DAC-8523-BC6B34B389BF}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="62.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="22.85546875"/>
+    <col min="2" max="2" customWidth="true" width="22.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2524,398 +2452,398 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>50</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>50</v>
-      </c>
       <c r="C24" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -2923,428 +2851,428 @@
         <v>96</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>108</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>115</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>37</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -3355,18 +3283,18 @@
         <v>27</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79">
@@ -3377,7 +3305,7 @@
         <v>27</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
@@ -3388,29 +3316,29 @@
         <v>27</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83">
@@ -3421,18 +3349,18 @@
         <v>27</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85">
@@ -3440,34 +3368,43 @@
         <v>143</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>144</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="B86" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="C86" t="s" s="0">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="B87" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="C87" t="s" s="0">
-        <v>144</v>
-      </c>
-    </row>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3475,18 +3412,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67967993-A739-423E-A463-F1890938CEA9}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="62.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="22.85546875"/>
+    <col min="2" max="2" customWidth="true" width="22.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3502,7 +3439,7 @@
         <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>146</v>
@@ -3513,7 +3450,7 @@
         <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>148</v>
@@ -3524,10 +3461,10 @@
         <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -3535,10 +3472,10 @@
         <v>150</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -3546,7 +3483,7 @@
         <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>152</v>
@@ -3557,7 +3494,7 @@
         <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>154</v>
@@ -3568,7 +3505,7 @@
         <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>156</v>
@@ -3579,54 +3516,54 @@
         <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
@@ -3637,7 +3574,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -3645,21 +3582,21 @@
         <v>165</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17">
@@ -3667,7 +3604,7 @@
         <v>153</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>154</v>
@@ -3678,21 +3615,21 @@
         <v>155</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
@@ -3700,10 +3637,10 @@
         <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
@@ -3711,21 +3648,21 @@
         <v>155</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -3733,21 +3670,21 @@
         <v>147</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -3755,21 +3692,21 @@
         <v>147</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -3777,18 +3714,18 @@
         <v>165</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>7</v>
@@ -3796,43 +3733,43 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>148</v>
@@ -3843,29 +3780,29 @@
         <v>155</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>144</v>
@@ -3873,13 +3810,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37">
@@ -3887,7 +3824,7 @@
         <v>186</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>187</v>
@@ -3898,7 +3835,7 @@
         <v>155</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>188</v>
@@ -3909,7 +3846,7 @@
         <v>155</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>189</v>
@@ -3920,7 +3857,7 @@
         <v>155</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>190</v>
@@ -3931,7 +3868,7 @@
         <v>186</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>191</v>
@@ -3942,7 +3879,7 @@
         <v>155</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>192</v>
@@ -3950,10 +3887,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>148</v>
@@ -3964,7 +3901,7 @@
         <v>165</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>193</v>
@@ -3975,7 +3912,7 @@
         <v>186</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>194</v>
@@ -3986,7 +3923,7 @@
         <v>186</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>195</v>
@@ -3997,7 +3934,7 @@
         <v>196</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>144</v>
@@ -4008,7 +3945,7 @@
         <v>155</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>197</v>
@@ -4019,10 +3956,10 @@
         <v>155</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
@@ -4030,7 +3967,7 @@
         <v>198</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>199</v>
@@ -4041,7 +3978,7 @@
         <v>155</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>144</v>
@@ -4052,7 +3989,7 @@
         <v>155</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>200</v>
@@ -4063,10 +4000,10 @@
         <v>155</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54">
@@ -4074,7 +4011,7 @@
         <v>198</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>201</v>
@@ -4088,7 +4025,7 @@
         <v>27</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56">
@@ -4099,7 +4036,7 @@
         <v>27</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -4110,7 +4047,7 @@
         <v>27</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58">
@@ -4132,7 +4069,7 @@
         <v>27</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60">
@@ -4143,18 +4080,18 @@
         <v>27</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62">
@@ -4162,7 +4099,7 @@
         <v>206</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>207</v>
@@ -4173,7 +4110,7 @@
         <v>155</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>208</v>
@@ -4184,7 +4121,7 @@
         <v>209</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>210</v>
@@ -4198,7 +4135,7 @@
         <v>27</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
@@ -4206,7 +4143,7 @@
         <v>212</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>144</v>
@@ -4217,15 +4154,15 @@
         <v>165</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>27</v>
@@ -4242,7 +4179,7 @@
         <v>27</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
@@ -4258,13 +4195,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72">
@@ -4294,7 +4231,7 @@
         <v>186</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>189</v>
@@ -4305,10 +4242,10 @@
         <v>219</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
@@ -4316,7 +4253,7 @@
         <v>220</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>221</v>
@@ -4327,7 +4264,7 @@
         <v>220</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>144</v>
@@ -4338,7 +4275,7 @@
         <v>222</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>223</v>
@@ -4352,7 +4289,7 @@
         <v>27</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80">
@@ -4368,7 +4305,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>27</v>
@@ -4379,13 +4316,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83">
@@ -4407,7 +4344,7 @@
         <v>27</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85">
@@ -4418,7 +4355,7 @@
         <v>27</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
@@ -4434,24 +4371,24 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89">
@@ -4462,7 +4399,7 @@
         <v>27</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90">
@@ -4473,7 +4410,7 @@
         <v>27</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91">
@@ -4484,12 +4421,12 @@
         <v>27</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s" s="0">
         <v>27</v>
@@ -4506,7 +4443,7 @@
         <v>27</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94">
@@ -4517,7 +4454,7 @@
         <v>27</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95">
@@ -4528,18 +4465,18 @@
         <v>27</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B96" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97">
@@ -4555,13 +4492,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99">
@@ -4572,18 +4509,18 @@
         <v>27</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B100" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>237</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101">
@@ -4594,18 +4531,18 @@
         <v>27</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B102" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103">
@@ -4616,29 +4553,29 @@
         <v>27</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>239</v>
+        <v>465</v>
       </c>
       <c r="B104" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
@@ -4649,12 +4586,12 @@
         <v>27</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B107" t="s" s="0">
         <v>27</v>
@@ -4665,7 +4602,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>240</v>
+        <v>466</v>
       </c>
       <c r="B108" t="s" s="0">
         <v>27</v>
@@ -4676,26 +4613,30 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>241</v>
+        <v>467</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="0">
-        <v>243</v>
-      </c>
-      <c r="B110" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="C110" t="s" s="0">
-        <v>134</v>
-      </c>
-    </row>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4703,18 +4644,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2D1119-38C4-4199-B638-86AFDD4B9CB8}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="62.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="22.85546875"/>
+    <col min="2" max="2" customWidth="true" width="22.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4727,10 +4668,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>215</v>
@@ -4738,10 +4679,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>13</v>
@@ -4749,54 +4690,54 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>268</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>146</v>
@@ -4804,21 +4745,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>37</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>229</v>
@@ -4826,32 +4767,32 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>215</v>
@@ -4859,112 +4800,112 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>278</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>280</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>136</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>282</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>23</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>283</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -4972,7 +4913,7 @@
         <v>255</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>23</v>
@@ -4980,40 +4921,40 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>103</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>27</v>
@@ -5024,156 +4965,156 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>146</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>289</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>288</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>288</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>162</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>229</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>292</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>293</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="B42" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>294</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
@@ -5184,95 +5125,95 @@
         <v>27</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>132</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>295</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>132</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>238</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>87</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="B49" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>126</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>238</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -5283,270 +5224,265 @@
         <v>27</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>132</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>15</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>298</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>131</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>229</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>105</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>300</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>282</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>131</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>288</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>132</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>302</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>291</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C72" t="s" s="0">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="0">
-        <v>291</v>
-      </c>
-      <c r="B73" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C73" t="s" s="0">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5554,18 +5490,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8A4683-27E5-4A6F-B915-C4B381902D31}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="62.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="22.85546875"/>
+    <col min="2" max="2" customWidth="true" width="22.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5578,29 +5514,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>292</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>27</v>
@@ -5611,29 +5547,29 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>305</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>27</v>
@@ -5644,175 +5580,176 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>315</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5820,18 +5757,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2186C7-FFE6-4CDF-992E-4D48874A8CF8}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="62.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="22.85546875"/>
+    <col min="2" max="2" customWidth="true" width="22.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5844,832 +5781,832 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>324</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>326</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>328</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>273</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>70</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>331</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>333</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>335</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>128</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>337</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>128</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>340</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>341</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>343</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>344</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>345</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>346</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>348</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>351</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>353</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>109</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>237</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>327</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>354</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>355</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>356</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>356</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>357</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>325</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>358</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>237</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>359</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>111</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>384</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>385</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>386</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>388</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>374</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>390</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>227</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>392</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>393</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>395</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>396</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>309</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>398</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>379</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>371</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>144</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>374</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>375</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>376</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>377</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>378</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>379</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>382</v>
+        <v>293</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>385</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>388</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>389</v>
+        <v>296</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>374</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>390</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>227</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>393</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>395</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="B72" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>398</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>379</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>402</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>404</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>27</v>
@@ -6680,18 +6617,18 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>406</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>27</v>
@@ -6702,40 +6639,40 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>410</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>411</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>27</v>
@@ -6746,98 +6683,98 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>412</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>413</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>398</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>415</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>398</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>416</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>230</v>
@@ -6845,191 +6782,329 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>419</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>377</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>404</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>421</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>422</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>321</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>111</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>354</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>170</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>418</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>74</v>
+        <v>395</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>254</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>49</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>223</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>423</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>330</v>
+        <v>397</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>111</v>
-      </c>
-    </row>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7043,12 +7118,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="62.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="22.85546875"/>
+    <col min="2" max="2" customWidth="true" width="22.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7061,280 +7136,264 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>250</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>242</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>415</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>415</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>482</v>
+        <v>423</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7348,12 +7407,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="62.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="22.85546875"/>
+    <col min="2" max="2" customWidth="true" width="22.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7366,192 +7425,176 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Testdata/Data.xlsx
+++ b/src/test/resources/Testdata/Data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14256" uniqueCount="516">
   <si>
     <t>Bike model</t>
   </si>
@@ -1423,6 +1423,165 @@
   </si>
   <si>
     <t>Rs. 11.00 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire LXI 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 5.81 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.75 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire ZDi</t>
+  </si>
+  <si>
+    <t>Rs. 4.33 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.12 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.26 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.89 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.71 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.24 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift VXI BSII</t>
+  </si>
+  <si>
+    <t>Rs. 3.03 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.88 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.73 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.59 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 12.94 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2000-2003 Honda City 1.5 EXI S</t>
+  </si>
+  <si>
+    <t>Rs. 3.96 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2011-2013 Honda City 1.5 S AT</t>
+  </si>
+  <si>
+    <t>Rs. 4.15 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City ZX 2005-2008 Honda City EXi</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W10 AWD</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VXI 2018</t>
+  </si>
+  <si>
+    <t>Rs. 5.45 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 EV (Diesel) PS 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Tour 2012-2018 Maruti Swift Dzire LDI</t>
+  </si>
+  <si>
+    <t>Hyundai EON Hyundai EON D Lite Plus</t>
+  </si>
+  <si>
+    <t>Honda Amaze 2013-2016 Honda Amaze S i-Vtech</t>
+  </si>
+  <si>
+    <t>Hyundai Grand i10 Nios 2019-2023 Hyundai Grand i10 Nios AMT Sportz</t>
+  </si>
+  <si>
+    <t>Royapettah</t>
+  </si>
+  <si>
+    <t>BMW 3 Series 2019-2022 BMW 3 Series 320d Luxury Line</t>
+  </si>
+  <si>
+    <t>Rs. 55.00 Lakh</t>
+  </si>
+  <si>
+    <t>Tata Nexon 2020-2023 Tata Nexon XMA AMT S BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 9.06 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Alto 800 2012-2016 Maruti Alto 800 LXI</t>
+  </si>
+  <si>
+    <t>Maruti Alto K10 2014-2020 Maruti Alto K10 VXI AMT</t>
+  </si>
+  <si>
+    <t>Maruti Wagon R 2013-2022 Maruti Wagon R AMT VXI</t>
+  </si>
+  <si>
+    <t>Audi Q7 Audi Q7 Technology</t>
+  </si>
+  <si>
+    <t>Paltra</t>
+  </si>
+  <si>
+    <t>Rs. 81.50 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Grand i10 Nios 2019-2023 Hyundai Grand i10 Nios Sportz CNG</t>
+  </si>
+  <si>
+    <t>Rs. 7.71 Lakh</t>
+  </si>
+  <si>
+    <t>Renault Triber Renault Triber RXZ EASY-R AMT</t>
+  </si>
+  <si>
+    <t>Maruti Celerio 2014-2017 Maruti Celerio ZXI AT Optional</t>
+  </si>
+  <si>
+    <t>Maruti Celerio 2017-2021 Maruti Celerio ZXI</t>
+  </si>
+  <si>
+    <t>Renault KWID 2015-2019 Renault KWID 1.0 RXT Optional AT 2016-2019</t>
+  </si>
+  <si>
+    <t>Rs. 3.95 Lakh</t>
+  </si>
+  <si>
+    <t>Tata Tiago 2015-2019 Tata Tiago 1.2 Revotron XZA</t>
+  </si>
+  <si>
+    <t>Rs. 5.11 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV700 Mahindra XUV700 AX7 Diesel AT Luxury Pack BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 25.50 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Grand i10 2013-2016 Hyundai Grand i10 AT Sportz</t>
+  </si>
+  <si>
+    <t>Maruti Baleno 2015-2022 Maruti Baleno 1.2 CVT Zeta</t>
   </si>
 </sst>
 </file>
@@ -1980,73 +2139,73 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>88</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>451</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>332</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>45</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>456</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>81</v>
@@ -2057,29 +2216,29 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>132</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>24</v>
@@ -2090,12 +2249,34 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
         <v>461</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s" s="0">
+      <c r="B20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>462</v>
       </c>
     </row>
@@ -2757,13 +2938,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>31</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>38</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5">
@@ -2771,65 +2952,65 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>45</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -2859,54 +3040,54 @@
         <v>31</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -2914,197 +3095,197 @@
         <v>43</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>79</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>62</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>83</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
@@ -3208,32 +3389,32 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>95</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>111</v>
@@ -3241,62 +3422,62 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>62</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>118</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>24</v>
@@ -3307,123 +3488,123 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65">
@@ -3439,188 +3620,221 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>119</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>62</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>108</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B82" t="s" s="0">
+      <c r="B84" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="C82" t="s" s="0">
+      <c r="C84" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C85" t="s" s="0">
         <v>139</v>
       </c>
     </row>
@@ -3662,7 +3876,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67967993-A739-423E-A463-F1890938CEA9}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -3686,18 +3900,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>44</v>
@@ -3708,134 +3922,134 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>149</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>33</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
@@ -3846,7 +4060,7 @@
         <v>39</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
@@ -3854,197 +4068,197 @@
         <v>146</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>35</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>118</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>60</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>169</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>76</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>141</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>176</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>178</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>139</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35">
@@ -4055,18 +4269,18 @@
         <v>39</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37">
@@ -4077,84 +4291,84 @@
         <v>39</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>141</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>187</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>189</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>139</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45">
@@ -4165,18 +4379,18 @@
         <v>39</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47">
@@ -4187,51 +4401,51 @@
         <v>39</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>139</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>146</v>
+        <v>485</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>195</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>196</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>197</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52">
@@ -4239,603 +4453,658 @@
         <v>140</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>121</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>108</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>200</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>169</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>114</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>174</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>204</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>139</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>99</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>209</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>211</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>167</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>212</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>183</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>84</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>139</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>219</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>121</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>222</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>108</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>225</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>38</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>187</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>121</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="B92" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="B94" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="B95" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="B96" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>232</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="B97" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>121</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>233</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>234</v>
+        <v>473</v>
       </c>
       <c r="B100" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>55</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>124</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B104" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>30</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="B105" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>238</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="B106" t="s" s="0">
+      <c r="B111" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="C106" t="s" s="0">
+      <c r="C111" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -4870,35 +5139,35 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>10</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>243</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
@@ -4906,109 +5175,109 @@
         <v>240</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>125</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>246</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>248</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>100</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>211</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>254</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15">
@@ -5016,76 +5285,76 @@
         <v>240</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>100</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>20</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>258</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22">
@@ -5112,35 +5381,35 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>20</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27">
@@ -5148,175 +5417,175 @@
         <v>263</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>100</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>247</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>265</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>125</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>267</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>267</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>63</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>154</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>224</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>271</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -5327,7 +5596,7 @@
         <v>24</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44">
@@ -5343,134 +5612,134 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>125</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>233</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>76</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>124</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>119</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>260</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>233</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>125</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>12</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>275</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>275</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57">
@@ -5481,84 +5750,84 @@
         <v>24</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>247</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>124</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>124</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>233</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>224</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65">
@@ -5569,7 +5838,7 @@
         <v>24</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>257</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
@@ -5580,29 +5849,29 @@
         <v>24</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>124</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>267</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>125</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69">
@@ -5613,29 +5882,29 @@
         <v>24</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>275</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72">
@@ -5680,13 +5949,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>125</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5694,120 +5963,120 @@
         <v>281</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>284</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>17</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>286</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>233</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>124</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14">
@@ -5940,13 +6209,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>310</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -5957,84 +6226,84 @@
         <v>61</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>121</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>312</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>62</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>121</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19">
@@ -6042,65 +6311,65 @@
         <v>300</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>320</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>326</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>328</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
@@ -6111,40 +6380,40 @@
         <v>61</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>106</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>232</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29">
@@ -6152,7 +6421,7 @@
         <v>296</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>331</v>
@@ -6160,420 +6429,420 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>332</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>35</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>232</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>108</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>336</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>339</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>149</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>33</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>343</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>189</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>124</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>118</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>232</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>345</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>139</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>35</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>359</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>195</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>364</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>365</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>367</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>368</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>369</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68">
@@ -6617,7 +6886,7 @@
         <v>39</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>354</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72">
@@ -6820,57 +7089,57 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>132</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>225</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>388</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>352</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>38</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95">
@@ -6881,84 +7150,84 @@
         <v>61</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>317</v>
+        <v>390</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>396</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B97" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>397</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>390</v>
+        <v>313</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>108</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>329</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>174</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="B102" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>132</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103">
@@ -6966,59 +7235,59 @@
         <v>311</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="B104" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>398</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="B105" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>38</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>219</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>399</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B108" t="s" s="0">
         <v>24</v>
@@ -7029,68 +7298,68 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>55</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="B110" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>108</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="B111" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>382</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="B112" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>399</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="B113" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>341</v>
+        <v>403</v>
       </c>
       <c r="B114" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>114</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115">
@@ -7101,62 +7370,84 @@
         <v>24</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>121</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B116" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>404</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>313</v>
+        <v>406</v>
       </c>
       <c r="B117" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>36</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>405</v>
+        <v>296</v>
       </c>
       <c r="B118" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="B119" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>141</v>
+        <v>482</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>296</v>
+        <v>483</v>
       </c>
       <c r="B120" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>118</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>397</v>
       </c>
     </row>
     <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -7352,7 +7643,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>78</v>
@@ -7363,13 +7654,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>84</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
@@ -7862,6 +8153,50 @@
         <v>436</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>502</v>
+      </c>
+    </row>
     <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/Testdata/Data.xlsx
+++ b/src/test/resources/Testdata/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VISHNU KOSANA\eclipse-workspace\Identify_New_Bikes\src\test\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA5350-8EC9-4259-B438-36377AEA537F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2DB61D-D486-4615-8AAF-D40BD0E7F5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1104" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="9" xr2:uid="{E4213508-EAF9-46AB-836E-979B79A9D986}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E4213508-EAF9-46AB-836E-979B79A9D986}"/>
   </bookViews>
   <sheets>
     <sheet name="upcoming bikes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14256" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="465">
   <si>
     <t>Bike model</t>
   </si>
@@ -105,27 +105,30 @@
     <t>Honda Rebel 300</t>
   </si>
   <si>
+    <t>Maruti 800 Maruti 800 AC</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Rs. 1.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 55,000</t>
+  </si>
+  <si>
+    <t>Rs. 80,000</t>
+  </si>
+  <si>
+    <t>Rs. 30,000</t>
+  </si>
+  <si>
     <t>Maruti 800 Maruti 800 Std</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Rs. 70,000</t>
   </si>
   <si>
-    <t>Maruti 800 Maruti 800 AC</t>
-  </si>
-  <si>
-    <t>Rs. 30,000</t>
-  </si>
-  <si>
-    <t>Rs. 55,000</t>
-  </si>
-  <si>
-    <t>Rs. 80,000</t>
-  </si>
-  <si>
     <t>Rs. 1.40 Lakh</t>
   </si>
   <si>
@@ -147,22 +150,28 @@
     <t>Rs. 6.83 Lakh</t>
   </si>
   <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire LXI 1.2</t>
+  </si>
+  <si>
+    <t>Thiruverkadu</t>
+  </si>
+  <si>
+    <t>Rs. 5.81 Lakh</t>
+  </si>
+  <si>
     <t>Nandanam</t>
   </si>
   <si>
     <t>Rs. 5.70 Lakh</t>
   </si>
   <si>
-    <t>Thiruverkadu</t>
-  </si>
-  <si>
     <t>Rs. 6.49 Lakh</t>
   </si>
   <si>
     <t>Maruti Swift Dzire Maruti Swift Dzire ZXI</t>
   </si>
   <si>
-    <t>Rs. 5.64 Lakh</t>
+    <t>Rs. 5.60 Lakh</t>
   </si>
   <si>
     <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire ZXI</t>
@@ -186,12 +195,6 @@
     <t>Rs. 6.66 Lakh</t>
   </si>
   <si>
-    <t>Maruti Swift Dzire Maruti Swift Dzire ZXI BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 8.03 Lakh</t>
-  </si>
-  <si>
     <t>Maruti Dzire 2017-2020 Maruti Swift Dzire AMT ZXI Plus</t>
   </si>
   <si>
@@ -204,9 +207,6 @@
     <t>Rs. 5.50 Lakh</t>
   </si>
   <si>
-    <t>Rs. 6.64 Lakh</t>
-  </si>
-  <si>
     <t>Rs. 7.16 Lakh</t>
   </si>
   <si>
@@ -255,7 +255,7 @@
     <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire VDi</t>
   </si>
   <si>
-    <t>Rs. 4.30 Lakh</t>
+    <t>Rs. 4.26 Lakh</t>
   </si>
   <si>
     <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VDI</t>
@@ -267,15 +267,24 @@
     <t>Rs. 3.25 Lakh</t>
   </si>
   <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire ZDI</t>
-  </si>
-  <si>
     <t>Kolathur</t>
   </si>
   <si>
     <t>Rs. 3.65 Lakh</t>
   </si>
   <si>
+    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire VXi</t>
+  </si>
+  <si>
+    <t>Rs. 3.75 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire VXI BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 7.10 Lakh</t>
+  </si>
+  <si>
     <t>Maruti Dzire 2017-2020 Maruti Swift Dzire VXI 1.2 BS IV</t>
   </si>
   <si>
@@ -312,63 +321,57 @@
     <t>Rs. 7.30 Lakh</t>
   </si>
   <si>
-    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire VXi</t>
-  </si>
-  <si>
     <t>Rs. 3.55 Lakh</t>
   </si>
   <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire VDI</t>
+    <t>Rs. 2.97 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire LXi</t>
+  </si>
+  <si>
+    <t>Ambattur</t>
+  </si>
+  <si>
+    <t>Rs. 4.95 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.10 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VXI</t>
+  </si>
+  <si>
+    <t>Rs. 2.45 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VXi AT</t>
+  </si>
+  <si>
+    <t>Porur</t>
+  </si>
+  <si>
+    <t>Rs. 3.60 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.80 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire ZDI</t>
+  </si>
+  <si>
+    <t>Rs. 7.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.24 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire ZXi</t>
   </si>
   <si>
     <t>Rs. 6.95 Lakh</t>
   </si>
   <si>
-    <t>Rs. 2.97 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire LXi</t>
-  </si>
-  <si>
-    <t>Ambattur</t>
-  </si>
-  <si>
-    <t>Rs. 4.95 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.10 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VXI</t>
-  </si>
-  <si>
-    <t>Rs. 2.45 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire VXi AT</t>
-  </si>
-  <si>
-    <t>Porur</t>
-  </si>
-  <si>
-    <t>Rs. 3.60 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.80 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2015-2017 Maruti Swift Dzire ZDI</t>
-  </si>
-  <si>
-    <t>Rs. 7.00 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire ZXi</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire Maruti Swift Dzire VXI BSVI</t>
-  </si>
-  <si>
     <t>Rs. 4.10 Lakh</t>
   </si>
   <si>
@@ -432,6 +435,9 @@
     <t>Maruti Swift Dzire Maruti Swift Dzire VXI AT</t>
   </si>
   <si>
+    <t>Rs. 3.95 Lakh</t>
+  </si>
+  <si>
     <t>Rs. 8.00 Lakh</t>
   </si>
   <si>
@@ -456,732 +462,729 @@
     <t>Rs. 4.75 Lakh</t>
   </si>
   <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift ZXI BSIV</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift ZXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VXI BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 6.05 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 7.07 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift DDiS VDI</t>
+  </si>
+  <si>
+    <t>Rs. 5.95 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VVT ZXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2018 Maruti Swift AMT VXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift ZXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift LDI</t>
+  </si>
+  <si>
+    <t>Rs. 3.40 Lakh</t>
+  </si>
+  <si>
     <t>Maruti Swift 2014-2021 Maruti Swift VDI BSIV</t>
   </si>
   <si>
+    <t>Rs. 4.99 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 7.25 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VXI Optional</t>
+  </si>
+  <si>
+    <t>Rs. 5.04 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.99 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.37 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.98 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift ZXI Plus DT AMT BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 7.76 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.51 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift AMT VXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2018 Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 4.60 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VDI</t>
+  </si>
+  <si>
+    <t>Rs. 3.30 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift LXI Option SP Limited Edition</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.30 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.40 Lakh</t>
+  </si>
+  <si>
     <t>Rs. 6.25 Lakh</t>
   </si>
   <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift ZXI BSIV</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift ZXI</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift VXI BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 6.05 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Maruti Swift VXI</t>
-  </si>
-  <si>
-    <t>Rs. 7.07 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift DDiS VDI</t>
-  </si>
-  <si>
-    <t>Rs. 5.95 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift VVT ZXI</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2018 Maruti Swift AMT VXI</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift ZXI</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift LDI</t>
-  </si>
-  <si>
-    <t>Rs. 3.40 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.99 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift VXI</t>
-  </si>
-  <si>
-    <t>Rs. 7.25 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift VXI Optional</t>
-  </si>
-  <si>
-    <t>Rs. 5.04 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.02 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.37 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.98 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Maruti Swift ZXI Plus DT AMT BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 7.76 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.61 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift AMT VXI</t>
+    <t>Rs. 4.56 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift ZXI Plus</t>
+  </si>
+  <si>
+    <t>Rs. 6.67 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VVT VXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift ZXI</t>
+  </si>
+  <si>
+    <t>Rs. 4.83 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.57 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.79 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.28 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.53 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.22 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.85 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.12 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.84 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2018 Maruti Swift AMT ZDI</t>
+  </si>
+  <si>
+    <t>Rs. 6.06 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.62 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.75 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.84 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift Vdi BSIII</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VXI 2018</t>
+  </si>
+  <si>
+    <t>Rs. 5.26 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.94 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift VXI BSVI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift LXI</t>
+  </si>
+  <si>
+    <t>Rs. 6.15 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift VXI AMT</t>
+  </si>
+  <si>
+    <t>Rs. 7.89 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift RS VXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift 1.2 VXi BSII</t>
+  </si>
+  <si>
+    <t>Rs. 1.90 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.02 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift VXI with ABS</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift LXI</t>
+  </si>
+  <si>
+    <t>Rs. 6.60 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift 1.3 VXI ABS</t>
+  </si>
+  <si>
+    <t>Rs. 2.75 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.65 Lakh</t>
   </si>
   <si>
     <t>Rs. 5.25 Lakh</t>
   </si>
   <si>
-    <t>Maruti Swift 2018 Maruti Swift VXI</t>
-  </si>
-  <si>
-    <t>Rs. 4.60 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift VDI</t>
-  </si>
-  <si>
-    <t>Rs. 3.30 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift LXI Option SP Limited Edition</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift VXI</t>
-  </si>
-  <si>
-    <t>Rs. 5.30 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.40 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.56 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Maruti Swift ZXI Plus</t>
-  </si>
-  <si>
-    <t>Rs. 6.67 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift VVT VXI</t>
-  </si>
-  <si>
-    <t>Maruti Swift Maruti Swift ZXI</t>
-  </si>
-  <si>
-    <t>Rs. 4.83 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.67 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.79 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.28 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.53 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.22 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.85 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.99 Lakh</t>
+    <t>Rs. 6.45 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift VDI</t>
+  </si>
+  <si>
+    <t>Rs. 4.45 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift ZXI Plus</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2011-2014 Maruti Swift VXI</t>
+  </si>
+  <si>
+    <t>Rs. 7.60 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2011-2014 Maruti Swift ZDi</t>
+  </si>
+  <si>
+    <t>Rs. 4.55 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VDI Optional</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift 1.2 Ldi BSIII</t>
+  </si>
+  <si>
+    <t>Rs. 2.35 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift 1.2 VDI BSII</t>
+  </si>
+  <si>
+    <t>Rs. 2.70 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.20 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift RS VDI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2018 Maruti Swift ZXI Plus</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2010-2014 Maruti Swift ZDi</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift AMT VDI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift LXI Option</t>
+  </si>
+  <si>
+    <t>Rs. 4.90 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift 1.2 VDI BSII W ABS</t>
+  </si>
+  <si>
+    <t>Rs. 1.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.45 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift VXI BSII</t>
+  </si>
+  <si>
+    <t>Rs. 6.90 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.00 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift LXI BSVI</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift 1.3 VXi</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift ZXI BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 5.40 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2018 Maruti Swift VDI</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz</t>
+  </si>
+  <si>
+    <t>Rs. 3.11 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna 1.1L</t>
+  </si>
+  <si>
+    <t>Rs. 3.37 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.80 Lakh</t>
+  </si>
+  <si>
+    <t>Kilpauk</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Asta</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz 1.1L</t>
+  </si>
+  <si>
+    <t>Rs. 2.85 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2 AT</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 2.60 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.13 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Asta 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 2.90 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.03 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 2.88 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.10 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz AT</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Magna AT</t>
+  </si>
+  <si>
+    <t>Rs. 3.15 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.20 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.40 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 1.65 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Era</t>
+  </si>
+  <si>
+    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.1</t>
+  </si>
+  <si>
+    <t>Rs. 2.25 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.02 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna 1.2 iTech SE</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Magna 1.1 iTech SE</t>
+  </si>
+  <si>
+    <t>Rs. 1.80 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.15 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai i10 Hyundai i10 Sportz 1.1L LPG</t>
+  </si>
+  <si>
+    <t>Rs. 2.43 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XL</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XO eRLX Euro II</t>
+  </si>
+  <si>
+    <t>Rs. 1.85 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XO</t>
+  </si>
+  <si>
+    <t>Rs. 1.30 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GLS</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GL</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing XG eRLX Euro II</t>
+  </si>
+  <si>
+    <t>Rs. 60,000</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GLS LPG</t>
+  </si>
+  <si>
+    <t>Rs. 75,000</t>
+  </si>
+  <si>
+    <t>Rs. 50,000</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC CVT ZX</t>
+  </si>
+  <si>
+    <t>Rs. 14.40 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC CVT SV</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC SV</t>
+  </si>
+  <si>
+    <t>Anna Nagar West Extension</t>
+  </si>
+  <si>
+    <t>Rs. 5.65 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 8.10 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC VX</t>
+  </si>
+  <si>
+    <t>Rs. 6.85 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC VX Option BL</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC CVT VX</t>
+  </si>
+  <si>
+    <t>Rs. 7.18 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i DTEC V</t>
+  </si>
+  <si>
+    <t>Rs. 6.19 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2008-2011 Honda City 1.5 V MT Exclusive</t>
+  </si>
+  <si>
+    <t>Rs. 5.55 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC CVT VX</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City VX MT</t>
+  </si>
+  <si>
+    <t>Rs. 5.73 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.98 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC VX</t>
+  </si>
+  <si>
+    <t>Rs. 10.25 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.83 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.78 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.59 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC V</t>
+  </si>
+  <si>
+    <t>Honda City 2011-2013 Honda City V MT</t>
+  </si>
+  <si>
+    <t>Rs. 4.73 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.29 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2020-2023 Honda City ZX MT</t>
+  </si>
+  <si>
+    <t>Rs. 12.94 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.80 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2020-2023 Honda City ZX CVT</t>
+  </si>
+  <si>
+    <t>Rs. 12.08 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.35 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.69 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC ZX</t>
+  </si>
+  <si>
+    <t>Rs. 12.90 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.35 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 11.92 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 10.75 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC VX</t>
+  </si>
+  <si>
+    <t>Honda City 2008-2011 Honda City 1.5 S MT</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City SV MT</t>
+  </si>
+  <si>
+    <t>Rs. 7.72 Lakh</t>
   </si>
   <si>
     <t>Rs. 5.23 Lakh</t>
   </si>
   <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift LXI BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 3.84 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2018 Maruti Swift AMT ZDI</t>
-  </si>
-  <si>
-    <t>Rs. 6.06 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.62 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.75 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.84 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.94 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Maruti Swift VXI BSVI</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift LXI</t>
-  </si>
-  <si>
-    <t>Rs. 6.15 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift RS VXI</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2004-2010 Maruti Swift 1.2 VXi BSII</t>
-  </si>
-  <si>
-    <t>Rs. 1.90 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.02 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Maruti Swift VXI AMT</t>
-  </si>
-  <si>
-    <t>Rs. 6.84 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2004-2010 Maruti Swift VXI with ABS</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift LXI</t>
-  </si>
-  <si>
-    <t>Rs. 6.60 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2004-2010 Maruti Swift 1.3 VXI ABS</t>
-  </si>
-  <si>
-    <t>Rs. 2.75 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.45 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift VDI</t>
-  </si>
-  <si>
-    <t>Rs. 4.45 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift ZXI Plus</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2011-2014 Maruti Swift VXI</t>
-  </si>
-  <si>
-    <t>Rs. 7.60 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2011-2014 Maruti Swift ZDi</t>
-  </si>
-  <si>
-    <t>Rs. 4.55 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift VDI Optional</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2004-2010 Maruti Swift 1.2 Ldi BSIII</t>
-  </si>
-  <si>
-    <t>Rs. 2.35 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2004-2010 Maruti Swift 1.2 VDI BSII</t>
-  </si>
-  <si>
-    <t>Rs. 2.70 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.20 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift RS VDI</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2018 Maruti Swift ZXI Plus</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2010-2014 Maruti Swift ZDi</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift AMT VDI</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift LXI Option</t>
-  </si>
-  <si>
-    <t>Rs. 4.90 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.90 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.00 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Maruti Swift LXI BSVI</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2004-2010 Maruti Swift 1.3 VXi</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2004-2010 Maruti Swift Ldi BSII</t>
-  </si>
-  <si>
-    <t>Maruti Swift Maruti Swift ZXI BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 5.40 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2018 Maruti Swift VDI</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Magna</t>
+    <t>Honda City 4th Generation Honda City V MT</t>
+  </si>
+  <si>
+    <t>Rs. 9.40 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 13.60 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2011-2013 Honda City V AT</t>
   </si>
   <si>
     <t>Chromepet</t>
   </si>
   <si>
-    <t>Hyundai i10 Hyundai i10 Sportz</t>
-  </si>
-  <si>
-    <t>Rs. 3.11 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.15 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Magna 1.1L</t>
-  </si>
-  <si>
-    <t>Rs. 3.37 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.80 Lakh</t>
-  </si>
-  <si>
-    <t>Kilpauk</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Asta</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Sportz 1.1L</t>
-  </si>
-  <si>
-    <t>Rs. 2.85 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2 AT</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.2</t>
-  </si>
-  <si>
-    <t>Rs. 2.60 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.13 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Asta 1.2</t>
-  </si>
-  <si>
-    <t>Rs. 2.90 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.16 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2</t>
-  </si>
-  <si>
-    <t>Rs. 2.10 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.53 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Magna AT</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Sportz AT</t>
-  </si>
-  <si>
-    <t>Rs. 3.45 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.20 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.59 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.40 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 1.65 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Era</t>
-  </si>
-  <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Magna 1.1</t>
-  </si>
-  <si>
-    <t>Rs. 2.25 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.02 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Magna 1.2 iTech SE</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Magna 1.1 iTech SE</t>
-  </si>
-  <si>
-    <t>Rs. 1.80 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.15 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 50,000</t>
-  </si>
-  <si>
-    <t>Hyundai i10 Hyundai i10 Sportz 1.1L LPG</t>
-  </si>
-  <si>
-    <t>Rs. 2.43 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing GL Plus</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing XL</t>
-  </si>
-  <si>
-    <t>Rs. 1.50 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing XO eRLX Euro II</t>
-  </si>
-  <si>
-    <t>Rs. 1.85 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing XO</t>
-  </si>
-  <si>
-    <t>Rs. 1.30 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing GLS</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing GL</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing XG eRLX Euro II</t>
-  </si>
-  <si>
-    <t>Rs. 1.00 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 60,000</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing Hyundai Santro Xing GLS LPG</t>
-  </si>
-  <si>
-    <t>Rs. 75,000</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-VTEC CVT ZX</t>
-  </si>
-  <si>
-    <t>Rs. 14.40 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC CVT SV</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC SV</t>
-  </si>
-  <si>
-    <t>Anna Nagar West Extension</t>
-  </si>
-  <si>
-    <t>Rs. 5.65 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC V</t>
-  </si>
-  <si>
-    <t>Rs. 8.10 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC VX</t>
-  </si>
-  <si>
-    <t>Rs. 6.85 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC VX Option BL</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC CVT VX</t>
-  </si>
-  <si>
-    <t>Rs. 7.18 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i DTEC V</t>
-  </si>
-  <si>
-    <t>Rs. 6.19 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2020-2023 Honda City ZX CVT</t>
+    <t>Rs. 7.43 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 10.88 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.69 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.46 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.15 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2008-2011 Honda City 1.5 V MT</t>
+  </si>
+  <si>
+    <t>Rs. 4.07 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.46 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.51 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.61 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC S</t>
+  </si>
+  <si>
+    <t>Rs. 5.41 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City ZX CVT</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-DTEC ZX</t>
+  </si>
+  <si>
+    <t>Rs. 8.17 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.21 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City Anniversary i-VTEC CVT ZX</t>
+  </si>
+  <si>
+    <t>Rs. 11.00 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.80 Lakh</t>
   </si>
   <si>
     <t>Rs. 13.25 Lakh</t>
   </si>
   <si>
-    <t>Honda City 2008-2011 Honda City 1.5 V MT Exclusive</t>
-  </si>
-  <si>
-    <t>Rs. 5.55 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC CVT VX</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City VX MT</t>
-  </si>
-  <si>
-    <t>Rs. 5.85 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.98 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-VTEC VX</t>
-  </si>
-  <si>
-    <t>Rs. 10.25 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.83 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.78 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.71 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC V</t>
-  </si>
-  <si>
-    <t>Rs. 7.10 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2011-2013 Honda City V MT</t>
-  </si>
-  <si>
-    <t>Rs. 4.73 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.29 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2020-2023 Honda City ZX MT</t>
-  </si>
-  <si>
-    <t>Rs. 13.07 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.80 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 12.08 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.35 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 8.50 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.09 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.69 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-VTEC ZX</t>
-  </si>
-  <si>
-    <t>Rs. 12.90 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 8.35 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 11.92 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 10.75 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC VX</t>
-  </si>
-  <si>
-    <t>Honda City 2008-2011 Honda City 1.5 S MT</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City SV MT</t>
-  </si>
-  <si>
-    <t>Rs. 7.72 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City V MT</t>
-  </si>
-  <si>
-    <t>Rs. 9.49 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 13.60 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2011-2013 Honda City V AT</t>
-  </si>
-  <si>
-    <t>Rs. 7.43 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 10.88 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.69 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.46 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.15 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2008-2011 Honda City 1.5 V MT</t>
-  </si>
-  <si>
-    <t>Rs. 4.07 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.46 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.51 Lakh</t>
+    <t>Honda City 2014-2015 Honda City i VTEC SV</t>
+  </si>
+  <si>
+    <t>Honda City 2000-2003 Honda City 1.5 EXI S</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC CVT VX</t>
+  </si>
+  <si>
+    <t>Rs. 9.25 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.31 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2003-2005 Honda City 1.5 GXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.90 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City V AT</t>
+  </si>
+  <si>
+    <t>Rs. 3.96 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i DTec VX</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City ZX MT</t>
+  </si>
+  <si>
+    <t>Rs. 12.30 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 9.80 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i VTEC E</t>
   </si>
   <si>
     <t>Honda City 2020-2023 Honda City V MT</t>
   </si>
   <si>
-    <t>Rs. 8.83 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.61 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i VTEC S</t>
-  </si>
-  <si>
-    <t>Rs. 5.41 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City ZX CVT</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-DTEC ZX</t>
-  </si>
-  <si>
-    <t>Rs. 8.17 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.21 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2020-2023 Honda City VX MT</t>
-  </si>
-  <si>
-    <t>Rs. 9.82 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City i-VTEC CVT VX</t>
-  </si>
-  <si>
-    <t>Rs. 9.25 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.80 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.31 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2003-2005 Honda City 1.5 GXI</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC SV</t>
-  </si>
-  <si>
-    <t>Rs. 5.90 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City V AT</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i DTec VX</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City ZX MT</t>
-  </si>
-  <si>
-    <t>Rs. 12.30 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 4th Generation Honda City Anniversary i-VTEC CVT ZX</t>
-  </si>
-  <si>
-    <t>Rs. 9.80 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2014-2015 Honda City i VTEC E</t>
-  </si>
-  <si>
     <t>Rs. 10.00 Lakh</t>
   </si>
   <si>
@@ -1200,9 +1203,6 @@
     <t>Rs. 9.90 Lakh</t>
   </si>
   <si>
-    <t>Rs. 5.60 Lakh</t>
-  </si>
-  <si>
     <t>Rs. 8.70 Lakh</t>
   </si>
   <si>
@@ -1221,9 +1221,6 @@
     <t>Rs. 7.35 Lakh</t>
   </si>
   <si>
-    <t>Honda City 4th Generation Honda City i-VTEC SV</t>
-  </si>
-  <si>
     <t>Rs. 8.30 Lakh</t>
   </si>
   <si>
@@ -1257,18 +1254,27 @@
     <t>Honda City 4th Generation Honda City i-DTEC VX</t>
   </si>
   <si>
+    <t>Honda City 2011-2013 Honda City 1.5 S AT</t>
+  </si>
+  <si>
+    <t>Rs. 4.15 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City ZX 2005-2008 Honda City EXi</t>
+  </si>
+  <si>
     <t>Toyota Innova 2004-2011 Toyota Innova 2.5 V Diesel 7-seater</t>
   </si>
   <si>
+    <t>Toyota Innova Toyota Innova 2.5 EV (Diesel) PS 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 13.50 Lakh</t>
+  </si>
+  <si>
     <t>Toyota Innova Toyota Innova 2.5 G (Diesel) 7 Seater</t>
   </si>
   <si>
-    <t>Rs. 13.50 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 7 Seater</t>
-  </si>
-  <si>
     <t>Toyota Innova Toyota Innova 2.5 VX (Diesel) 7 Seater BS IV</t>
   </si>
   <si>
@@ -1416,172 +1422,13 @@
     <t>Rs. 9.50 Lakh</t>
   </si>
   <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W10 AWD</t>
+  </si>
+  <si>
     <t>Mahindra XUV500 2011-2015 Mahindra XUV500 W8 FWD</t>
   </si>
   <si>
     <t>Mahindra XUV500 Mahindra XUV500 W5 BSIV</t>
-  </si>
-  <si>
-    <t>Rs. 11.00 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire LXI 1.2</t>
-  </si>
-  <si>
-    <t>Rs. 5.81 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 3.75 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire 2008-2012 Maruti Swift Dzire ZDi</t>
-  </si>
-  <si>
-    <t>Rs. 4.33 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.12 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.26 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 7.89 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 6.71 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 4.24 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2004-2010 Maruti Swift VXI BSII</t>
-  </si>
-  <si>
-    <t>Rs. 3.03 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 2.88 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.73 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 5.59 Lakh</t>
-  </si>
-  <si>
-    <t>Rs. 12.94 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2000-2003 Honda City 1.5 EXI S</t>
-  </si>
-  <si>
-    <t>Rs. 3.96 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City 2011-2013 Honda City 1.5 S AT</t>
-  </si>
-  <si>
-    <t>Rs. 4.15 Lakh</t>
-  </si>
-  <si>
-    <t>Honda City ZX 2005-2008 Honda City EXi</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 Mahindra XUV500 W10 AWD</t>
-  </si>
-  <si>
-    <t>Maruti Swift 2014-2021 Maruti Swift VXI 2018</t>
-  </si>
-  <si>
-    <t>Rs. 5.45 Lakh</t>
-  </si>
-  <si>
-    <t>Toyota Innova Toyota Innova 2.5 EV (Diesel) PS 7 Seater BS IV</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire Tour 2012-2018 Maruti Swift Dzire LDI</t>
-  </si>
-  <si>
-    <t>Hyundai EON Hyundai EON D Lite Plus</t>
-  </si>
-  <si>
-    <t>Honda Amaze 2013-2016 Honda Amaze S i-Vtech</t>
-  </si>
-  <si>
-    <t>Hyundai Grand i10 Nios 2019-2023 Hyundai Grand i10 Nios AMT Sportz</t>
-  </si>
-  <si>
-    <t>Royapettah</t>
-  </si>
-  <si>
-    <t>BMW 3 Series 2019-2022 BMW 3 Series 320d Luxury Line</t>
-  </si>
-  <si>
-    <t>Rs. 55.00 Lakh</t>
-  </si>
-  <si>
-    <t>Tata Nexon 2020-2023 Tata Nexon XMA AMT S BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 9.06 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Alto 800 2012-2016 Maruti Alto 800 LXI</t>
-  </si>
-  <si>
-    <t>Maruti Alto K10 2014-2020 Maruti Alto K10 VXI AMT</t>
-  </si>
-  <si>
-    <t>Maruti Wagon R 2013-2022 Maruti Wagon R AMT VXI</t>
-  </si>
-  <si>
-    <t>Audi Q7 Audi Q7 Technology</t>
-  </si>
-  <si>
-    <t>Paltra</t>
-  </si>
-  <si>
-    <t>Rs. 81.50 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Grand i10 Nios 2019-2023 Hyundai Grand i10 Nios Sportz CNG</t>
-  </si>
-  <si>
-    <t>Rs. 7.71 Lakh</t>
-  </si>
-  <si>
-    <t>Renault Triber Renault Triber RXZ EASY-R AMT</t>
-  </si>
-  <si>
-    <t>Maruti Celerio 2014-2017 Maruti Celerio ZXI AT Optional</t>
-  </si>
-  <si>
-    <t>Maruti Celerio 2017-2021 Maruti Celerio ZXI</t>
-  </si>
-  <si>
-    <t>Renault KWID 2015-2019 Renault KWID 1.0 RXT Optional AT 2016-2019</t>
-  </si>
-  <si>
-    <t>Rs. 3.95 Lakh</t>
-  </si>
-  <si>
-    <t>Tata Tiago 2015-2019 Tata Tiago 1.2 Revotron XZA</t>
-  </si>
-  <si>
-    <t>Rs. 5.11 Lakh</t>
-  </si>
-  <si>
-    <t>Mahindra XUV700 Mahindra XUV700 AX7 Diesel AT Luxury Pack BSVI</t>
-  </si>
-  <si>
-    <t>Rs. 25.50 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Grand i10 2013-2016 Hyundai Grand i10 AT Sportz</t>
-  </si>
-  <si>
-    <t>Maruti Baleno 2015-2022 Maruti Baleno 1.2 CVT Zeta</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951963A-8562-4595-A577-8BA0E0730467}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="A2:C8"/>
     </sheetView>
   </sheetViews>
@@ -2051,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004F4FFE-709B-421A-9F56-60F676E2422F}">
   <dimension ref="A1:C279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="62.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,211 +1920,211 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>462</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2569,75 +2416,59 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>31</v>
+      </c>
+    </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2892,7 +2723,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F332C985-B90F-4DAC-8523-BC6B34B389BF}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -2916,139 +2747,139 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>463</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>464</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>388</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>39</v>
@@ -3059,10 +2890,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>58</v>
@@ -3081,7 +2912,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>61</v>
@@ -3092,13 +2923,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>63</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -3106,7 +2937,7 @@
         <v>64</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>65</v>
@@ -3128,7 +2959,7 @@
         <v>68</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>69</v>
@@ -3172,32 +3003,32 @@
         <v>59</v>
       </c>
       <c r="B25" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>78</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>465</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>323</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -3213,13 +3044,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -3227,43 +3058,43 @@
         <v>68</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -3274,23 +3105,23 @@
         <v>24</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>24</v>
@@ -3312,7 +3143,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>98</v>
@@ -3340,26 +3171,26 @@
         <v>104</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>98</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>105</v>
@@ -3395,67 +3226,67 @@
         <v>39</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>472</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>63</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>61</v>
@@ -3466,24 +3297,24 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
@@ -3494,29 +3325,29 @@
         <v>24</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
@@ -3527,78 +3358,78 @@
         <v>24</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>24</v>
@@ -3615,7 +3446,7 @@
         <v>24</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
@@ -3626,7 +3457,7 @@
         <v>24</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
@@ -3637,29 +3468,29 @@
         <v>24</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70">
@@ -3670,51 +3501,51 @@
         <v>24</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75">
@@ -3725,117 +3556,95 @@
         <v>24</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>121</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>62</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="B84" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C84" t="s" s="0">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="B85" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C85" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3869,6 +3678,158 @@
     <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3876,7 +3837,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67967993-A739-423E-A463-F1890938CEA9}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -3903,10 +3864,10 @@
         <v>142</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
@@ -3914,10 +3875,10 @@
         <v>143</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -3947,7 +3908,7 @@
         <v>148</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>149</v>
@@ -3958,10 +3919,10 @@
         <v>150</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -3969,10 +3930,10 @@
         <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -3983,7 +3944,7 @@
         <v>75</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -3991,7 +3952,7 @@
         <v>153</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>154</v>
@@ -3999,24 +3960,24 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
@@ -4027,18 +3988,18 @@
         <v>61</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -4049,7 +4010,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -4060,7 +4021,7 @@
         <v>39</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -4068,43 +4029,43 @@
         <v>146</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -4120,7 +4081,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>104</v>
@@ -4134,7 +4095,7 @@
         <v>170</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>171</v>
@@ -4156,7 +4117,7 @@
         <v>173</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>174</v>
@@ -4164,10 +4125,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>175</v>
@@ -4175,13 +4136,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>141</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
@@ -4192,51 +4153,51 @@
         <v>39</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33">
@@ -4247,7 +4208,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34">
@@ -4258,7 +4219,7 @@
         <v>39</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35">
@@ -4269,18 +4230,18 @@
         <v>39</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37">
@@ -4291,51 +4252,51 @@
         <v>39</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>141</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>468</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42">
@@ -4343,32 +4304,32 @@
         <v>146</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>191</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>53</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>193</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45">
@@ -4379,7 +4340,7 @@
         <v>39</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>139</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46">
@@ -4395,7 +4356,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>39</v>
@@ -4406,57 +4367,57 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>196</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>485</v>
+        <v>197</v>
       </c>
       <c r="B49" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>388</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>465</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>469</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>141</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53">
@@ -4467,12 +4428,12 @@
         <v>39</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>24</v>
@@ -4483,18 +4444,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>24</v>
@@ -4505,29 +4466,29 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>470</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>24</v>
@@ -4538,13 +4499,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61">
@@ -4560,13 +4521,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>98</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63">
@@ -4574,219 +4535,219 @@
         <v>146</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>471</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>139</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>99</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>209</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>125</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>325</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>167</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>214</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>472</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>183</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>84</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>217</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>63</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>139</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>219</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>121</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
@@ -4797,62 +4758,62 @@
         <v>24</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>195</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>108</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>224</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>119</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>76</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>225</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
@@ -4863,128 +4824,128 @@
         <v>24</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>62</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>127</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>187</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B94" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>118</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B95" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="B97" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>106</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>486</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>473</v>
+        <v>239</v>
       </c>
       <c r="B100" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101">
@@ -4995,12 +4956,12 @@
         <v>24</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s" s="0">
         <v>24</v>
@@ -5017,18 +4978,18 @@
         <v>24</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B104" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
@@ -5039,29 +5000,29 @@
         <v>24</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B106" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B107" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108">
@@ -5072,42 +5033,209 @@
         <v>98</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B110" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B111" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>127</v>
-      </c>
-    </row>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5115,7 +5243,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2D1119-38C4-4199-B638-86AFDD4B9CB8}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -5139,76 +5267,76 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>98</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>98</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>100</v>
@@ -5216,73 +5344,73 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>98</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>63</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>75</v>
@@ -5293,436 +5421,436 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>474</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>475</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>261</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>100</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>247</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>265</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>125</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>211</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>267</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>267</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>63</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>154</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>224</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>271</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>125</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>233</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>124</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>119</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B49" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>260</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>233</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>125</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>12</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>275</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>24</v>
@@ -5733,191 +5861,357 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>247</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>124</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>124</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>233</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>224</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>277</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>125</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>253</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>270</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C71" t="s" s="0">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>270</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C72" t="s" s="0">
-        <v>233</v>
-      </c>
-    </row>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5925,7 +6219,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8A4683-27E5-4A6F-B915-C4B381902D31}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -5949,7 +6243,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>24</v>
@@ -5960,29 +6254,29 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>282</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>63</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>24</v>
@@ -5993,62 +6287,62 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>290</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>24</v>
@@ -6070,26 +6364,262 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>281</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>277</v>
-      </c>
-    </row>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6099,7 +6629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2186C7-FFE6-4CDF-992E-4D48874A8CF8}">
   <dimension ref="A1:C279"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6121,117 +6651,117 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>75</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>167</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>75</v>
@@ -6242,128 +6772,128 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>476</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>477</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>98</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>323</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>478</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>61</v>
@@ -6374,95 +6904,95 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>75</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>61</v>
@@ -6473,65 +7003,65 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>149</v>
@@ -6539,95 +7069,95 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>189</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>63</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>75</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="B47" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="B47" t="s" s="0">
-        <v>241</v>
-      </c>
       <c r="C47" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>39</v>
@@ -6638,10 +7168,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>349</v>
@@ -6649,7 +7179,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>39</v>
@@ -6660,10 +7190,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>351</v>
@@ -6671,7 +7201,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>63</v>
@@ -6693,7 +7223,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>39</v>
@@ -6704,7 +7234,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>39</v>
@@ -6715,29 +7245,29 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>39</v>
@@ -6748,109 +7278,109 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>310</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>174</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>479</v>
+        <v>316</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>24</v>
+        <v>347</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>125</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>369</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>371</v>
@@ -6858,13 +7388,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s" s="0">
         <v>372</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C69" t="s" s="0">
-        <v>286</v>
       </c>
     </row>
     <row r="70">
@@ -6872,32 +7402,32 @@
         <v>373</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>374</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>480</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C72" t="s" s="0">
         <v>376</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C72" t="s" s="0">
-        <v>88</v>
       </c>
     </row>
     <row r="73">
@@ -6908,51 +7438,51 @@
         <v>24</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>378</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s" s="0">
         <v>379</v>
-      </c>
-      <c r="B74" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C74" t="s" s="0">
-        <v>380</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>145</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>382</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s" s="0">
         <v>383</v>
-      </c>
-      <c r="B77" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C77" t="s" s="0">
-        <v>217</v>
       </c>
     </row>
     <row r="78">
@@ -6960,10 +7490,10 @@
         <v>384</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79">
@@ -6971,18 +7501,18 @@
         <v>385</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>386</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>314</v>
+        <v>386</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>387</v>
@@ -6990,32 +7520,32 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>10</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>388</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>389</v>
@@ -7034,10 +7564,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>374</v>
@@ -7056,10 +7586,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>374</v>
@@ -7067,7 +7597,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>98</v>
@@ -7078,7 +7608,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B89" t="s" s="0">
         <v>24</v>
@@ -7089,40 +7619,40 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>388</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B92" t="s" s="0">
         <v>63</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>61</v>
@@ -7133,24 +7663,24 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B95" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="96">
@@ -7161,12 +7691,12 @@
         <v>61</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B97" t="s" s="0">
         <v>61</v>
@@ -7177,18 +7707,18 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B99" t="s" s="0">
         <v>63</v>
@@ -7199,18 +7729,18 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B100" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B101" t="s" s="0">
         <v>104</v>
@@ -7221,51 +7751,51 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B102" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B103" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B104" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B105" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B106" t="s" s="0">
         <v>24</v>
@@ -7276,18 +7806,18 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B107" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B108" t="s" s="0">
         <v>24</v>
@@ -7298,139 +7828,139 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B110" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B111" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B112" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B113" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s" s="0">
         <v>403</v>
-      </c>
-      <c r="B114" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C114" t="s" s="0">
-        <v>404</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B115" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B116" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B117" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>141</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B118" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>481</v>
+        <v>406</v>
       </c>
       <c r="B119" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>482</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>483</v>
+        <v>408</v>
       </c>
       <c r="B120" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>282</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B121" t="s" s="0">
         <v>98</v>
@@ -7441,13 +7971,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B122" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -7611,7 +8141,7 @@
   <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="62.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7632,73 +8162,73 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>487</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>24</v>
@@ -7709,7 +8239,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>24</v>
@@ -7720,7 +8250,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>24</v>
@@ -7731,18 +8261,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>24</v>
@@ -7753,53 +8283,37 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>421</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>419</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>119</v>
+      </c>
+    </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -8078,141 +8592,81 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>75</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>75</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>497</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>498</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>499</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>492</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>500</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>501</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>438</v>
+      </c>
+    </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/Testdata/Data.xlsx
+++ b/src/test/resources/Testdata/Data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="489">
   <si>
     <t>Bike model</t>
   </si>
@@ -1429,6 +1429,78 @@
   </si>
   <si>
     <t>Mahindra XUV500 Mahindra XUV500 W5 BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 2.77 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai EON Hyundai EON D Lite Plus</t>
+  </si>
+  <si>
+    <t>Honda Amaze 2013-2016 Honda Amaze S i-Vtech</t>
+  </si>
+  <si>
+    <t>Rs. 4.30 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Grand i10 Nios 2019-2023 Hyundai Grand i10 Nios AMT Sportz</t>
+  </si>
+  <si>
+    <t>Royapettah</t>
+  </si>
+  <si>
+    <t>BMW 3 Series 2019-2022 BMW 3 Series 320d Luxury Line</t>
+  </si>
+  <si>
+    <t>Rs. 55.00 Lakh</t>
+  </si>
+  <si>
+    <t>Tata Nexon 2020-2023 Tata Nexon XMA AMT S BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 9.06 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Alto 800 2012-2016 Maruti Alto 800 LXI</t>
+  </si>
+  <si>
+    <t>Maruti Alto K10 2014-2020 Maruti Alto K10 VXI AMT</t>
+  </si>
+  <si>
+    <t>Maruti Wagon R 2013-2022 Maruti Wagon R AMT VXI</t>
+  </si>
+  <si>
+    <t>Audi Q7 Audi Q7 Technology</t>
+  </si>
+  <si>
+    <t>Paltra</t>
+  </si>
+  <si>
+    <t>Rs. 81.50 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.81 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.71 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i DTEC VX</t>
+  </si>
+  <si>
+    <t>Rs. 5.86 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.26 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 16.30 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W11 Option BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 18.00 Lakh</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +2042,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>448</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7">
@@ -2085,45 +2157,56 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>461</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>134</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>461</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
         <v>464</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s" s="0">
+      <c r="B21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>365</v>
       </c>
     </row>
@@ -2405,13 +2488,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -2422,7 +2505,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -2433,7 +2516,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -2444,18 +2527,18 @@
         <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -3528,73 +3611,73 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>56</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>134</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>24</v>
@@ -3605,45 +3688,56 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>62</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>128</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="B83" t="s" s="0">
+      <c r="B84" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="C83" t="s" s="0">
+      <c r="C84" t="s" s="0">
         <v>141</v>
       </c>
     </row>
@@ -4153,7 +4247,7 @@
         <v>39</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29">
@@ -5350,7 +5444,7 @@
         <v>36</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>256</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10">
@@ -6243,123 +6337,123 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>283</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>284</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>63</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>285</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>283</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>24</v>
+        <v>470</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>17</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>286</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>287</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>288</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>241</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>289</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>125</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>290</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>287</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>289</v>
+        <v>476</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>283</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>24</v>
+        <v>470</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>291</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>292</v>
+        <v>478</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>24</v>
+        <v>479</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>293</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13">
@@ -6651,123 +6745,123 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>295</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>75</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>215</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>298</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>300</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>301</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>39</v>
+        <v>470</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>302</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>303</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>304</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>305</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>111</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>306</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>307</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>308</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>309</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>310</v>
+        <v>476</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>310</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>61</v>
+        <v>470</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>311</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>75</v>
+        <v>479</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>62</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13">
@@ -6800,7 +6894,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>315</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16">
@@ -6822,7 +6916,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>318</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18">
@@ -6904,68 +6998,68 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>240</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>327</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>329</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>330</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>330</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31">
@@ -6973,54 +7067,54 @@
         <v>301</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>240</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>295</v>
+        <v>483</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>332</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>108</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>334</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36">
@@ -7028,10 +7122,10 @@
         <v>301</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37">
@@ -7168,68 +7262,68 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>349</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>352</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>354</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>355</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55">
@@ -7237,538 +7331,538 @@
         <v>301</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>356</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>357</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>359</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>194</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>362</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>174</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>347</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>24</v>
+        <v>347</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>126</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>371</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>287</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>374</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>91</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>379</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>145</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>383</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>221</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>387</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>313</v>
+        <v>386</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>84</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>10</v>
+        <v>388</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>299</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>389</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>390</v>
+        <v>313</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>374</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>394</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>108</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>229</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>45</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>380</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="B96" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>300</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="B97" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>108</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>61</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>327</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>174</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B101" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>62</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="B102" t="s" s="0">
         <v>104</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>397</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>310</v>
+        <v>378</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>42</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104">
@@ -7776,54 +7870,54 @@
         <v>310</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>223</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>398</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>108</v>
+        <v>398</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>399</v>
+        <v>306</v>
       </c>
       <c r="B107" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>56</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="B108" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109">
